--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezudilin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezudilin\PT.Doc\CWE-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="2552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="2561">
   <si>
     <t>CWE-1</t>
   </si>
@@ -7680,6 +7680,33 @@
   </si>
   <si>
     <t>Не рекомендуется</t>
+  </si>
+  <si>
+    <t>Неконтролируемый элемент пути поиска</t>
+  </si>
+  <si>
+    <t>Отсутствие кавычек вокруг элемента в пути поиска</t>
+  </si>
+  <si>
+    <t>Назначение вместо сравнения</t>
+  </si>
+  <si>
+    <t>Сравнение вместо назначения</t>
+  </si>
+  <si>
+    <t>Разглашение системных данных неавторизованным лицам</t>
+  </si>
+  <si>
+    <t>Клонируемый класс содержит конфиденциальные данные</t>
+  </si>
+  <si>
+    <t>Сериализуемый класс содержит конфиденциальные данные</t>
+  </si>
+  <si>
+    <t>Публичное (public) статическое (static) поле не помечено как final</t>
+  </si>
+  <si>
+    <t>Публичный метод cloneable() не объявлен как final ("Перехват объекта")</t>
   </si>
 </sst>
 </file>
@@ -8208,8 +8235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12918,19 +12945,25 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="3" t="s">
         <v>848</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>849</v>
       </c>
+      <c r="C428" s="1" t="s">
+        <v>2552</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="3" t="s">
         <v>850</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>851</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13422,19 +13455,25 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="3" t="s">
         <v>956</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>957</v>
       </c>
+      <c r="C482" s="1" t="s">
+        <v>2554</v>
+      </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="3" t="s">
         <v>958</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>959</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>2555</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -13514,11 +13553,14 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="3" t="s">
         <v>976</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>977</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>2560</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -13565,35 +13607,47 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="3" t="s">
         <v>988</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>989</v>
       </c>
+      <c r="C498" s="1" t="s">
+        <v>2556</v>
+      </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="3" t="s">
         <v>990</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>991</v>
       </c>
+      <c r="C499" s="1" t="s">
+        <v>2557</v>
+      </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="3" t="s">
         <v>992</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>993</v>
       </c>
+      <c r="C500" s="1" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="3" t="s">
         <v>994</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>995</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>2559</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="2561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2612">
   <si>
     <t>CWE-1</t>
   </si>
@@ -7586,9 +7586,6 @@
     <t>Отсутствие флага HttpOnly у конфиденциальных куки-файлов</t>
   </si>
   <si>
-    <t>Топ-10 OWASP 2013</t>
-  </si>
-  <si>
     <t>Уязвимости из Топ-10 OWASP (2004 г.)</t>
   </si>
   <si>
@@ -7598,9 +7595,6 @@
     <t>Топ-10 OWASP 2007 Категория А5 - Межсайтовая подмена запросов</t>
   </si>
   <si>
-    <t xml:space="preserve">Топ-10 OWASP 2007 Категория А9 - </t>
-  </si>
-  <si>
     <t>Топ-10 OWASP 2004 Категория А5 - Переполнение буфера</t>
   </si>
   <si>
@@ -7707,6 +7701,165 @@
   </si>
   <si>
     <t>Публичный метод cloneable() не объявлен как final ("Перехват объекта")</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A1 - Внедрение</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A8 - Межсайтовая подмена запросов (CSRF)</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A2 - Недостатки аутентификации и управления сессиями</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A3 - Межсайтовое выполнение сценариев (XSS)</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A4 - Небезопасные прямые ссылки на объекты</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A5 - Некорректная настройка параметров безопасности</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A6 - Разглашение конфиденциальных данных</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A7 - Отсутствие контроля доступа на функциональном уровне</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A9 - Использование компонентов с известными уязвимостями</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2013 Категория A10 - Непроверенные перенаправления и переадресации</t>
+  </si>
+  <si>
+    <t>Уязвимости из Топ-10 OWASP (2013 г.)</t>
+  </si>
+  <si>
+    <t>Упрощенная привязка опубликованных уязвимостей</t>
+  </si>
+  <si>
+    <t>Уязвимости без моделей программных сбоев</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): небезопасные значения</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): управление доступом</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): неиспользуемые сущности</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): API</t>
+  </si>
+  <si>
+    <t>Кластеры моделей программных сбоев</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): синхронизация</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): утечка данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): аутентификация</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): управление доступом</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): привилегии</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): криптография</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): вредоносное ПО</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): прогнозируемость</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): интерфейс пользователя</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): прочее</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): каналы</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): небезопасный доступ к ресурсам</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): небезопасные разрешения для ресурсов</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): обход аутентификации</t>
+  </si>
+  <si>
+    <t>Отсутствует проверка сертификатов OpenSSL</t>
+  </si>
+  <si>
+    <t>Необработанные исключения в сервлете</t>
+  </si>
+  <si>
+    <t>Использование аутентификации на стороне пользователя</t>
+  </si>
+  <si>
+    <t>Уязвимости из Топ-10 OWASP (2007 г.)</t>
+  </si>
+  <si>
+    <t>Уязвимости из Топ-10 OWASP (2010 г.)</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А2 - Внедрение</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А3 - Выполнение вредоносных файлов</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А4 - Небезопасные прямые ссылки на объекты</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А6 - Утечка данных и некорректная обработка ошибок</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А7 - Недостатки аутентификации и управления сессиями</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А8 - Ненадежная криптографическая защита</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А9 - Небезопасные каналы связи</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2007 Категория А10 - Недостаточное ограничение доступа к URL-адресам</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А1 - Отсутствие проверки входных данных</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А2 - Недостатки контроля доступа</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А3 - Недостатки аутентификации и управления сессиями</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А4 - Межсайтовое выполнение сценариев</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А6 - Внедрение</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А7 - Некорректная обработка ошибок</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А8 - Небезопасное хранение</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2004 Категория А10 - Небезопасные настройки конфигурации</t>
   </si>
 </sst>
 </file>
@@ -8235,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A732" sqref="A732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9267,7 +9420,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -9707,7 +9860,7 @@
         <v>260</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -9784,7 +9937,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -10642,7 +10795,7 @@
         <v>430</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10653,7 +10806,7 @@
         <v>432</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,7 +10883,7 @@
         <v>446</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,7 +11125,7 @@
         <v>490</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -10994,7 +11147,7 @@
         <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -11467,7 +11620,7 @@
         <v>580</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -12358,7 +12511,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +12522,7 @@
         <v>743</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -12380,7 +12533,7 @@
         <v>745</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -12490,7 +12643,7 @@
         <v>765</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -12501,7 +12654,7 @@
         <v>767</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -12545,7 +12698,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -12556,7 +12709,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -12567,7 +12720,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -12611,7 +12764,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -12622,7 +12775,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -12688,7 +12841,7 @@
         <v>801</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -12699,7 +12852,7 @@
         <v>803</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -12710,7 +12863,7 @@
         <v>805</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -12721,7 +12874,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -12908,7 +13061,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +13105,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -12963,7 +13116,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13113,7 +13266,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -13135,7 +13288,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -13256,6 +13409,9 @@
       <c r="B459" s="2" t="s">
         <v>911</v>
       </c>
+      <c r="C459" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
@@ -13327,7 +13483,7 @@
         <v>927</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -13386,7 +13542,7 @@
         <v>941</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -13462,7 +13618,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -13473,7 +13629,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -13549,7 +13705,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -13560,7 +13716,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -13614,7 +13770,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -13625,7 +13781,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -13636,7 +13792,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -13647,7 +13803,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -13658,7 +13814,7 @@
         <v>997</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -13669,7 +13825,7 @@
         <v>999</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13679,6 +13835,9 @@
       <c r="B504" s="2" t="s">
         <v>1001</v>
       </c>
+      <c r="C504" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
@@ -13687,6 +13846,9 @@
       <c r="B505" s="2" t="s">
         <v>1003</v>
       </c>
+      <c r="C505" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
@@ -13695,6 +13857,9 @@
       <c r="B506" s="2" t="s">
         <v>1005</v>
       </c>
+      <c r="C506" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
@@ -13704,7 +13869,7 @@
         <v>1007</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -13804,6 +13969,9 @@
       <c r="B517" s="2" t="s">
         <v>1027</v>
       </c>
+      <c r="C517" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
@@ -14102,6 +14270,9 @@
       <c r="B546" s="2" t="s">
         <v>1085</v>
       </c>
+      <c r="C546" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
@@ -14235,7 +14406,7 @@
         <v>1115</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -14246,7 +14417,7 @@
         <v>1117</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -14257,7 +14428,7 @@
         <v>1119</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -14268,7 +14439,7 @@
         <v>1121</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -14502,6 +14673,9 @@
       <c r="B593" s="2" t="s">
         <v>1179</v>
       </c>
+      <c r="C593" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
@@ -14552,19 +14726,25 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="3" t="s">
         <v>1192</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1193</v>
       </c>
+      <c r="C600" s="1" t="s">
+        <v>2591</v>
+      </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>1195</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>2592</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -14587,11 +14767,14 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="3" t="s">
         <v>1200</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>1201</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>2593</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -14798,11 +14981,14 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="3" t="s">
         <v>1252</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>1253</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -14885,7 +15071,7 @@
         <v>1273</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -15509,7 +15695,7 @@
         <v>1416</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -15520,31 +15706,40 @@
         <v>1418</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="3" t="s">
         <v>1419</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>1420</v>
       </c>
+      <c r="C714" s="1" t="s">
+        <v>2596</v>
+      </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>1422</v>
       </c>
+      <c r="C715" s="1" t="s">
+        <v>2597</v>
+      </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>1424</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>2598</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -15555,82 +15750,106 @@
         <v>1426</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="3" t="s">
         <v>1427</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>1428</v>
       </c>
+      <c r="C718" s="1" t="s">
+        <v>2599</v>
+      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>1430</v>
       </c>
+      <c r="C719" s="1" t="s">
+        <v>2600</v>
+      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>1432</v>
       </c>
+      <c r="C720" s="1" t="s">
+        <v>2601</v>
+      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2524</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="3" t="s">
         <v>1435</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>1436</v>
       </c>
+      <c r="C722" s="1" t="s">
+        <v>2603</v>
+      </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="3" t="s">
         <v>1437</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>1438</v>
       </c>
+      <c r="C723" s="1" t="s">
+        <v>2604</v>
+      </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="3" t="s">
         <v>1439</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>1440</v>
       </c>
+      <c r="C724" s="1" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="3" t="s">
         <v>1441</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>1442</v>
       </c>
+      <c r="C725" s="1" t="s">
+        <v>2606</v>
+      </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="3" t="s">
         <v>1443</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>1444</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>2607</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -15641,31 +15860,40 @@
         <v>1446</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="3" t="s">
         <v>1447</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>1448</v>
       </c>
+      <c r="C728" s="1" t="s">
+        <v>2608</v>
+      </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="3" t="s">
         <v>1449</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>1450</v>
       </c>
+      <c r="C729" s="1" t="s">
+        <v>2609</v>
+      </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>1452</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>2610</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -15676,15 +15904,18 @@
         <v>1454</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>1456</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2611</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -16340,11 +16571,14 @@
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="3" t="s">
         <v>1611</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>1612</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>2595</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -16931,7 +17165,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
         <v>1753</v>
       </c>
@@ -16939,7 +17173,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
         <v>1755</v>
       </c>
@@ -16947,7 +17181,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
         <v>1757</v>
       </c>
@@ -16955,7 +17189,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
         <v>1759</v>
       </c>
@@ -16963,7 +17197,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>1761</v>
       </c>
@@ -16971,39 +17205,51 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A886" s="1" t="s">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A886" s="3" t="s">
         <v>1763</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A887" s="1" t="s">
+      <c r="C886" s="1" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A887" s="3" t="s">
         <v>1765</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A888" s="1" t="s">
+      <c r="C887" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A888" s="3" t="s">
         <v>1767</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A889" s="1" t="s">
+      <c r="C888" s="1" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A889" s="3" t="s">
         <v>1769</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C889" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
         <v>1771</v>
       </c>
@@ -17011,7 +17257,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
         <v>1773</v>
       </c>
@@ -17019,7 +17265,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>1775</v>
       </c>
@@ -17027,7 +17273,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
         <v>1777</v>
       </c>
@@ -17035,7 +17281,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
         <v>1779</v>
       </c>
@@ -17043,20 +17289,26 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A895" s="1" t="s">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A895" s="3" t="s">
         <v>1781</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A896" s="1" t="s">
+      <c r="C895" s="1" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A896" s="3" t="s">
         <v>1783</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>1784</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>2578</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
@@ -17076,19 +17328,25 @@
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A899" s="1" t="s">
+      <c r="A899" s="3" t="s">
         <v>1789</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>1790</v>
       </c>
+      <c r="C899" s="1" t="s">
+        <v>2579</v>
+      </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A900" s="1" t="s">
+      <c r="A900" s="3" t="s">
         <v>1791</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>1792</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>2580</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -17100,59 +17358,80 @@
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A902" s="1" t="s">
+      <c r="A902" s="3" t="s">
         <v>1795</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>1796</v>
       </c>
+      <c r="C902" s="1" t="s">
+        <v>2581</v>
+      </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A903" s="1" t="s">
+      <c r="A903" s="3" t="s">
         <v>1797</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>1798</v>
       </c>
+      <c r="C903" s="1" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A904" s="1" t="s">
+      <c r="A904" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>1800</v>
       </c>
+      <c r="C904" s="1" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A905" s="1" t="s">
+      <c r="A905" s="3" t="s">
         <v>1801</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>1802</v>
       </c>
+      <c r="C905" s="1" t="s">
+        <v>2583</v>
+      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A906" s="1" t="s">
+      <c r="A906" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>1804</v>
       </c>
+      <c r="C906" s="1" t="s">
+        <v>2584</v>
+      </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A907" s="1" t="s">
+      <c r="A907" s="3" t="s">
         <v>1805</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>1806</v>
       </c>
+      <c r="C907" s="1" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A908" s="1" t="s">
+      <c r="A908" s="3" t="s">
         <v>1807</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>1808</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>2586</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -17340,94 +17619,124 @@
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A929" s="1" t="s">
+      <c r="A929" s="3" t="s">
         <v>1847</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>1848</v>
       </c>
+      <c r="C929" s="1" t="s">
+        <v>2569</v>
+      </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A930" s="1" t="s">
+      <c r="A930" s="3" t="s">
         <v>1849</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>1850</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2520</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A931" s="1" t="s">
+      <c r="A931" s="3" t="s">
         <v>1851</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>1852</v>
       </c>
+      <c r="C931" s="1" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A932" s="1" t="s">
+      <c r="A932" s="3" t="s">
         <v>1853</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>1854</v>
       </c>
+      <c r="C932" s="1" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A933" s="1" t="s">
+      <c r="A933" s="3" t="s">
         <v>1855</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>1856</v>
       </c>
+      <c r="C933" s="1" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A934" s="1" t="s">
+      <c r="A934" s="3" t="s">
         <v>1857</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>1858</v>
       </c>
+      <c r="C934" s="1" t="s">
+        <v>2564</v>
+      </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A935" s="1" t="s">
+      <c r="A935" s="3" t="s">
         <v>1859</v>
       </c>
       <c r="B935" s="1" t="s">
         <v>1860</v>
       </c>
+      <c r="C935" s="1" t="s">
+        <v>2565</v>
+      </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A936" s="1" t="s">
+      <c r="A936" s="3" t="s">
         <v>1861</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>1862</v>
       </c>
+      <c r="C936" s="1" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A937" s="1" t="s">
+      <c r="A937" s="3" t="s">
         <v>1863</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>1864</v>
       </c>
+      <c r="C937" s="1" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A938" s="1" t="s">
+      <c r="A938" s="3" t="s">
         <v>1865</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>1866</v>
       </c>
+      <c r="C938" s="1" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A939" s="1" t="s">
+      <c r="A939" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>1868</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -17470,39 +17779,51 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A945" s="1" t="s">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A945" s="3" t="s">
         <v>1879</v>
       </c>
       <c r="B945" s="1" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A946" s="1" t="s">
+      <c r="C945" s="1" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A946" s="3" t="s">
         <v>1881</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A947" s="1" t="s">
+      <c r="C946" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A947" s="3" t="s">
         <v>1883</v>
       </c>
       <c r="B947" s="1" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A948" s="1" t="s">
+      <c r="C947" s="1" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A948" s="3" t="s">
         <v>1885</v>
       </c>
       <c r="B948" s="1" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C948" s="1" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
         <v>1887</v>
       </c>
@@ -17510,7 +17831,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
         <v>1889</v>
       </c>
@@ -17518,7 +17839,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
         <v>1891</v>
       </c>
@@ -17526,7 +17847,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
         <v>1893</v>
       </c>
@@ -17534,7 +17855,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
         <v>1895</v>
       </c>
@@ -17542,7 +17863,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
         <v>1897</v>
       </c>
@@ -17550,7 +17871,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
         <v>1899</v>
       </c>
@@ -17558,7 +17879,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
         <v>1901</v>
       </c>
@@ -17566,7 +17887,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
         <v>1903</v>
       </c>
@@ -17574,7 +17895,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
         <v>1905</v>
       </c>
@@ -17582,7 +17903,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
         <v>1907</v>
       </c>
@@ -17590,7 +17911,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
         <v>1909</v>
       </c>
@@ -17911,11 +18232,14 @@
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1" t="s">
+      <c r="A1000" s="3" t="s">
         <v>1989</v>
       </c>
       <c r="B1000" s="1" t="s">
         <v>1990</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>2571</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -17946,11 +18270,14 @@
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1" t="s">
+      <c r="A1004" s="3" t="s">
         <v>1997</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>1998</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>2570</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2670">
   <si>
     <t>CWE-1</t>
   </si>
@@ -7860,6 +7860,180 @@
   </si>
   <si>
     <t>Топ-10 OWASP 2004 Категория А10 - Небезопасные настройки конфигурации</t>
+  </si>
+  <si>
+    <t>Топ-25 2009: Небезопасное взаимодействие между компонентами</t>
+  </si>
+  <si>
+    <t>Некорректное журналирование</t>
+  </si>
+  <si>
+    <t>Использование алгоритма RSA без OAEP</t>
+  </si>
+  <si>
+    <t>Доступ к разделу памяти перед началом буфера</t>
+  </si>
+  <si>
+    <t>Избыточное журналирование</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А1 - Внедрение</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А2 - Межсайтовое выполнение сценариев (XSS)</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А3 - Недостатки аутентификации и управления сессиями</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А4 - Небезопасные прямые ссылки на объекты</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А5 - Межсайтовая подмена запросов (CSRF)</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А6 - Некорректная настройка параметров безопасности</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А7 - Ненадежное шифрование хранимых данных</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А8 - Некорректное ограничение URL-доступа</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А10 - Непроверенные перенаправления и переадресации</t>
+  </si>
+  <si>
+    <t>Топ-10 OWASP 2010 Категория А9 - Недостаточная защита транспортного уровня</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 00 — Проверка и очистка входных данных (IDS)</t>
+  </si>
+  <si>
+    <t>Уязвимости из стандарта CERT по безопасному программированию на Java</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 01 — Объявления и инициализация (DCL)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 02 — Выражения (EXP)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 03 — Числовые типы и операции (NUM)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 04 — Объектная ориентация (OBJ)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 05 — Методы (MET)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 06 — Необычное поведение (ERR)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 07 — Видимость и атомарность (VNA)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 08 — Блокировка (LCK)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 09 — API потоков (THI)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 10 — Пулы потоков (TPS)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 11 — Прочие вопросы по безопасности потоков (TSM)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 12 — Ввод-вывод (FIO)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 13 — Сериализация (SER)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 14 — Безопасность платформы (SEC)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 15 — Среда выполнения (ENV)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на Java, Раздел 49 — Прочее (MSC)</t>
+  </si>
+  <si>
+    <t>Уязвимости из стандарта CERT по безопасному программированию на C++</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 01 — Препроцессор (PRE)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 02 — Объявления и инициализация (DCL)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 03 — Выражения (EXP)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 04 — Целые числа (INT)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 05 — Арифметические операции с плавающей запятой (FLP)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 06 — Массивы и стандартная библиотека STL (ARR)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 07 — Символы и строки (STR)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 08 — Управление памятью (MEM)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 09 — Ввод-вывод (FIO)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 10 — Среда (ENV)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 11 — Сигналы (SIG)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 12 — Обработка ошибок и исключений (ERR)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 13 — Объектно-ориентированное программирование (OOP)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 14 — Параллелизм (CON)</t>
+  </si>
+  <si>
+    <t>CERT Безопасное программирование на C++, Раздел 49 — Прочее (MSC)</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): цифровой сертификат</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): архитектура</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): реализация</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): жизненный цикл</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): безопасность</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): потеря данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): сбой при вычислении</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): использование некорректного API</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): непредусмотренные точки входа</t>
   </si>
 </sst>
 </file>
@@ -8388,15 +8562,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A732" sqref="A732"/>
+    <sheetView tabSelected="1" topLeftCell="A990" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1003" sqref="A1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -15950,7 +16124,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>1465</v>
       </c>
@@ -15958,7 +16132,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>1467</v>
       </c>
@@ -15966,7 +16140,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>1469</v>
       </c>
@@ -15974,7 +16148,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>1471</v>
       </c>
@@ -15982,7 +16156,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>1473</v>
       </c>
@@ -15990,7 +16164,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>1475</v>
       </c>
@@ -15998,7 +16172,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>1477</v>
       </c>
@@ -16006,7 +16180,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>1479</v>
       </c>
@@ -16014,7 +16188,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>1481</v>
       </c>
@@ -16022,7 +16196,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>1483</v>
       </c>
@@ -16030,7 +16204,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>1485</v>
       </c>
@@ -16038,7 +16212,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>1487</v>
       </c>
@@ -16046,7 +16220,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>1489</v>
       </c>
@@ -16054,7 +16228,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>1491</v>
       </c>
@@ -16062,7 +16236,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>1493</v>
       </c>
@@ -16070,12 +16244,15 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A752" s="1" t="s">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="3" t="s">
         <v>1495</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>1496</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>2612</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -16218,7 +16395,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>1529</v>
       </c>
@@ -16226,7 +16403,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>1531</v>
       </c>
@@ -16234,7 +16411,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>1533</v>
       </c>
@@ -16242,7 +16419,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>1535</v>
       </c>
@@ -16250,7 +16427,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>1537</v>
       </c>
@@ -16258,7 +16435,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>1539</v>
       </c>
@@ -16266,7 +16443,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>1541</v>
       </c>
@@ -16274,7 +16451,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>1543</v>
       </c>
@@ -16282,7 +16459,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>1545</v>
       </c>
@@ -16290,7 +16467,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>1547</v>
       </c>
@@ -16298,31 +16475,40 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A779" s="1" t="s">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779" s="3" t="s">
         <v>1549</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A780" s="1" t="s">
+      <c r="C779" s="1" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780" s="3" t="s">
         <v>1551</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A781" s="1" t="s">
+      <c r="C780" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" s="3" t="s">
         <v>1553</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C781" s="1" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>1555</v>
       </c>
@@ -16330,7 +16516,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>1557</v>
       </c>
@@ -16338,7 +16524,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>1559</v>
       </c>
@@ -16363,11 +16549,14 @@
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="3" t="s">
         <v>1565</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>1566</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>2615</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -16582,83 +16771,113 @@
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="3" t="s">
         <v>1613</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C811" s="1" t="s">
+        <v>2617</v>
+      </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="3" t="s">
         <v>1615</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C812" s="1" t="s">
+        <v>2618</v>
+      </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="3" t="s">
         <v>1617</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C813" s="1" t="s">
+        <v>2619</v>
+      </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="3" t="s">
         <v>1619</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>1620</v>
       </c>
+      <c r="C814" s="1" t="s">
+        <v>2620</v>
+      </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="3" t="s">
         <v>1621</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>1622</v>
       </c>
+      <c r="C815" s="1" t="s">
+        <v>2621</v>
+      </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="3" t="s">
         <v>1623</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="C816" s="1" t="s">
+        <v>2622</v>
+      </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>1626</v>
       </c>
+      <c r="C817" s="1" t="s">
+        <v>2623</v>
+      </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="3" t="s">
         <v>1627</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>1628</v>
       </c>
+      <c r="C818" s="1" t="s">
+        <v>2624</v>
+      </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="3" t="s">
         <v>1629</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>1630</v>
       </c>
+      <c r="C819" s="1" t="s">
+        <v>2626</v>
+      </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="3" t="s">
         <v>1631</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>1632</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>2625</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -16872,147 +17091,201 @@
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="3" t="s">
         <v>1681</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>1682</v>
       </c>
+      <c r="C845" s="1" t="s">
+        <v>2628</v>
+      </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="3" t="s">
         <v>1683</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>1684</v>
       </c>
+      <c r="C846" s="1" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="3" t="s">
         <v>1685</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>1686</v>
       </c>
+      <c r="C847" s="1" t="s">
+        <v>2629</v>
+      </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="3" t="s">
         <v>1687</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>1688</v>
       </c>
+      <c r="C848" s="1" t="s">
+        <v>2630</v>
+      </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="3" t="s">
         <v>1689</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>1690</v>
       </c>
+      <c r="C849" s="1" t="s">
+        <v>2631</v>
+      </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="3" t="s">
         <v>1691</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>1692</v>
       </c>
+      <c r="C850" s="1" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="3" t="s">
         <v>1693</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>1694</v>
       </c>
+      <c r="C851" s="1" t="s">
+        <v>2633</v>
+      </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="3" t="s">
         <v>1695</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>1696</v>
       </c>
+      <c r="C852" s="1" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A853" s="1" t="s">
+      <c r="A853" s="3" t="s">
         <v>1697</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>1698</v>
       </c>
+      <c r="C853" s="1" t="s">
+        <v>2635</v>
+      </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="3" t="s">
         <v>1699</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>1700</v>
       </c>
+      <c r="C854" s="1" t="s">
+        <v>2636</v>
+      </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A855" s="1" t="s">
+      <c r="A855" s="3" t="s">
         <v>1701</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C855" s="1" t="s">
+        <v>2637</v>
+      </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A856" s="1" t="s">
+      <c r="A856" s="3" t="s">
         <v>1703</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>1704</v>
       </c>
+      <c r="C856" s="1" t="s">
+        <v>2638</v>
+      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A857" s="1" t="s">
+      <c r="A857" s="3" t="s">
         <v>1705</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>1706</v>
       </c>
+      <c r="C857" s="1" t="s">
+        <v>2639</v>
+      </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A858" s="1" t="s">
+      <c r="A858" s="3" t="s">
         <v>1707</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>1708</v>
       </c>
+      <c r="C858" s="1" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A859" s="1" t="s">
+      <c r="A859" s="3" t="s">
         <v>1709</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>1710</v>
       </c>
+      <c r="C859" s="1" t="s">
+        <v>2641</v>
+      </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A860" s="1" t="s">
+      <c r="A860" s="3" t="s">
         <v>1711</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>1712</v>
       </c>
+      <c r="C860" s="1" t="s">
+        <v>2642</v>
+      </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A861" s="1" t="s">
+      <c r="A861" s="3" t="s">
         <v>1713</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>1714</v>
       </c>
+      <c r="C861" s="1" t="s">
+        <v>2643</v>
+      </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A862" s="1" t="s">
+      <c r="A862" s="3" t="s">
         <v>1715</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>1716</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>2644</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -17037,7 +17310,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
         <v>1721</v>
       </c>
@@ -17045,7 +17318,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
         <v>1723</v>
       </c>
@@ -17053,7 +17326,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
         <v>1725</v>
       </c>
@@ -17061,7 +17334,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
         <v>1727</v>
       </c>
@@ -17069,132 +17342,180 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A869" s="1" t="s">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869" s="3" t="s">
         <v>1729</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A870" s="1" t="s">
+      <c r="C869" s="1" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870" s="3" t="s">
         <v>1731</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A871" s="1" t="s">
+      <c r="C870" s="1" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A871" s="3" t="s">
         <v>1733</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A872" s="1" t="s">
+      <c r="C871" s="1" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A872" s="3" t="s">
         <v>1735</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A873" s="1" t="s">
+      <c r="C872" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A873" s="3" t="s">
         <v>1737</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A874" s="1" t="s">
+      <c r="C873" s="1" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A874" s="3" t="s">
         <v>1739</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A875" s="1" t="s">
+      <c r="C874" s="1" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A875" s="3" t="s">
         <v>1741</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A876" s="1" t="s">
+      <c r="C875" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A876" s="3" t="s">
         <v>1743</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A877" s="1" t="s">
+      <c r="C876" s="1" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A877" s="3" t="s">
         <v>1745</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A878" s="1" t="s">
+      <c r="C877" s="1" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A878" s="3" t="s">
         <v>1747</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A879" s="1" t="s">
+      <c r="C878" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A879" s="3" t="s">
         <v>1749</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A880" s="1" t="s">
+      <c r="C879" s="1" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A880" s="3" t="s">
         <v>1751</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>1752</v>
       </c>
+      <c r="C880" s="1" t="s">
+        <v>2656</v>
+      </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A881" s="1" t="s">
+      <c r="A881" s="3" t="s">
         <v>1753</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>1754</v>
       </c>
+      <c r="C881" s="1" t="s">
+        <v>2657</v>
+      </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A882" s="1" t="s">
+      <c r="A882" s="3" t="s">
         <v>1755</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>1756</v>
       </c>
+      <c r="C882" s="1" t="s">
+        <v>2658</v>
+      </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A883" s="1" t="s">
+      <c r="A883" s="3" t="s">
         <v>1757</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>1758</v>
       </c>
+      <c r="C883" s="1" t="s">
+        <v>2659</v>
+      </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A884" s="1" t="s">
+      <c r="A884" s="3" t="s">
         <v>1759</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>1760</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>2660</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -17824,11 +18145,14 @@
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A949" s="1" t="s">
+      <c r="A949" s="3" t="s">
         <v>1887</v>
       </c>
       <c r="B949" s="1" t="s">
         <v>1888</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>2661</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -17919,7 +18243,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
         <v>1911</v>
       </c>
@@ -17927,7 +18251,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
         <v>1913</v>
       </c>
@@ -17935,7 +18259,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
         <v>1915</v>
       </c>
@@ -17943,7 +18267,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
         <v>1917</v>
       </c>
@@ -17951,7 +18275,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
         <v>1919</v>
       </c>
@@ -17959,7 +18283,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
         <v>1921</v>
       </c>
@@ -17967,7 +18291,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
         <v>1923</v>
       </c>
@@ -17975,7 +18299,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
         <v>1925</v>
       </c>
@@ -17983,7 +18307,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
         <v>1927</v>
       </c>
@@ -17991,7 +18315,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
         <v>1929</v>
       </c>
@@ -17999,7 +18323,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
         <v>1931</v>
       </c>
@@ -18007,7 +18331,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
         <v>1933</v>
       </c>
@@ -18015,7 +18339,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
         <v>1935</v>
       </c>
@@ -18023,7 +18347,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
         <v>1937</v>
       </c>
@@ -18031,7 +18355,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
         <v>1939</v>
       </c>
@@ -18039,15 +18363,18 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A976" s="1" t="s">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976" s="3" t="s">
         <v>1941</v>
       </c>
       <c r="B976" s="1" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C976" s="1" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="1" t="s">
         <v>1943</v>
       </c>
@@ -18055,7 +18382,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
         <v>1945</v>
       </c>
@@ -18063,15 +18390,18 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A979" s="1" t="s">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A979" s="3" t="s">
         <v>1947</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C979" s="1" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="1" t="s">
         <v>1949</v>
       </c>
@@ -18079,7 +18409,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="1" t="s">
         <v>1951</v>
       </c>
@@ -18087,7 +18417,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
         <v>1953</v>
       </c>
@@ -18095,7 +18425,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
         <v>1955</v>
       </c>
@@ -18103,7 +18433,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="1" t="s">
         <v>1957</v>
       </c>
@@ -18111,15 +18441,18 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A985" s="1" t="s">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A985" s="3" t="s">
         <v>1959</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C985" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="1" t="s">
         <v>1961</v>
       </c>
@@ -18127,7 +18460,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="1" t="s">
         <v>1963</v>
       </c>
@@ -18135,7 +18468,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="1" t="s">
         <v>1965</v>
       </c>
@@ -18143,7 +18476,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="1" t="s">
         <v>1967</v>
       </c>
@@ -18151,7 +18484,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="1" t="s">
         <v>1969</v>
       </c>
@@ -18159,7 +18492,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="1" t="s">
         <v>1971</v>
       </c>
@@ -18167,7 +18500,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="1" t="s">
         <v>1973</v>
       </c>
@@ -18208,27 +18541,36 @@
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A997" s="1" t="s">
+      <c r="A997" s="3" t="s">
         <v>1983</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>1984</v>
       </c>
+      <c r="C997" s="1" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A998" s="1" t="s">
+      <c r="A998" s="3" t="s">
         <v>1985</v>
       </c>
       <c r="B998" s="1" t="s">
         <v>1986</v>
       </c>
+      <c r="C998" s="1" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A999" s="1" t="s">
+      <c r="A999" s="3" t="s">
         <v>1987</v>
       </c>
       <c r="B999" s="1" t="s">
         <v>1988</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>2667</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -18254,19 +18596,25 @@
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1" t="s">
+      <c r="A1002" s="3" t="s">
         <v>1993</v>
       </c>
       <c r="B1002" s="1" t="s">
         <v>1994</v>
       </c>
+      <c r="C1002" s="1" t="s">
+        <v>2668</v>
+      </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1" t="s">
+      <c r="A1003" s="3" t="s">
         <v>1995</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>1996</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>2669</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="2671">
   <si>
     <t>CWE-1</t>
   </si>
@@ -6134,9 +6134,6 @@
     <t>Обход пути: 'dir/../../filename'</t>
   </si>
   <si>
-    <t>Обзод пути: 'dir\..\..\filename'</t>
-  </si>
-  <si>
     <t>Обход пути: '...' (три точки)</t>
   </si>
   <si>
@@ -7226,9 +7223,6 @@
     <t>Возможность обхода аутентификации, связанная с наличием сторонней уязвимости</t>
   </si>
   <si>
-    <t>Отсутствие аутентификация для критичных функций</t>
-  </si>
-  <si>
     <t>Некорректное ограничение количества неудачных попыток аутентификации</t>
   </si>
   <si>
@@ -7538,9 +7532,6 @@
     <t>Некорректный порядок действий: преждевременное расширение привилегий</t>
   </si>
   <si>
-    <t>Некорректная обработка данных с высокой степенью сжатия (многократное увеличение данных)</t>
-  </si>
-  <si>
     <t>Недостаточный пул ресурсов</t>
   </si>
   <si>
@@ -7637,9 +7628,6 @@
     <t>Асимметричное использование ресурсов (Амплификация)</t>
   </si>
   <si>
-    <t>Недостаточный контроль объема сетевых сообщений (Сетевая амплификация)</t>
-  </si>
-  <si>
     <t>Возвращение указателя за пределами ожидаемого диапазона</t>
   </si>
   <si>
@@ -8034,6 +8022,21 @@
   </si>
   <si>
     <t>Модели программных сбоев (вторичный кластер): непредусмотренные точки входа</t>
+  </si>
+  <si>
+    <t>Недостаточный контроль объема сетевых сообщений (Увеличение сетевого трафика)</t>
+  </si>
+  <si>
+    <t>Некорректная обработка данных с высокой степенью сжатия (Увеличение объема данных)</t>
+  </si>
+  <si>
+    <t>Доступ к памяти за пределами буфера</t>
+  </si>
+  <si>
+    <t>Отсутствие аутентификации для критичных функций</t>
+  </si>
+  <si>
+    <t>Разыменование непроверенного указателя</t>
   </si>
 </sst>
 </file>
@@ -8562,8 +8565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A990" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1003" sqref="A1003"/>
+    <sheetView tabSelected="1" topLeftCell="A816" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A823" sqref="A823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8593,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8604,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8615,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8626,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8648,7 +8651,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8659,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -8670,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -8681,7 +8684,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -8692,7 +8695,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -8703,7 +8706,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8714,7 +8717,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -8725,7 +8728,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -8736,7 +8739,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -8747,7 +8750,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8758,7 +8761,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8769,7 +8772,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -8780,7 +8783,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8791,7 +8794,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8813,7 +8816,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -8824,7 +8827,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -8835,7 +8838,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -8923,7 +8926,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -8934,7 +8937,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8945,7 +8948,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8978,7 +8981,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -8989,7 +8992,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9000,7 +9003,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9011,7 +9014,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9022,7 +9025,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9033,7 +9036,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9044,7 +9047,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9055,7 +9058,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9066,7 +9069,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9077,7 +9080,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -9088,7 +9091,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -9099,7 +9102,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -9110,7 +9113,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -9121,7 +9124,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -9132,7 +9135,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -9143,7 +9146,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -9154,7 +9157,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -9165,7 +9168,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -9176,7 +9179,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -9187,7 +9190,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -9198,7 +9201,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -9209,7 +9212,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -9220,7 +9223,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -9231,7 +9234,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -9242,7 +9245,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -9253,7 +9256,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -9264,7 +9267,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -9275,7 +9278,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -9286,7 +9289,7 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -9297,7 +9300,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -9308,7 +9311,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -9319,7 +9322,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -9330,7 +9333,7 @@
         <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -9341,7 +9344,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -9352,7 +9355,7 @@
         <v>139</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -9363,7 +9366,7 @@
         <v>141</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -9374,7 +9377,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -9396,7 +9399,7 @@
         <v>2005</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -9407,7 +9410,7 @@
         <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -9418,7 +9421,7 @@
         <v>150</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -9429,7 +9432,7 @@
         <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -9440,7 +9443,7 @@
         <v>2006</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -9451,7 +9454,7 @@
         <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -9462,7 +9465,7 @@
         <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -9473,7 +9476,7 @@
         <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,7 +9487,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -9495,7 +9498,7 @@
         <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -9506,7 +9509,7 @@
         <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -9517,7 +9520,7 @@
         <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -9528,7 +9531,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -9539,7 +9542,7 @@
         <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -9550,7 +9553,7 @@
         <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -9561,7 +9564,7 @@
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -9572,7 +9575,7 @@
         <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -9583,7 +9586,7 @@
         <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -9594,7 +9597,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -9605,7 +9608,7 @@
         <v>183</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -9616,7 +9619,7 @@
         <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -9627,7 +9630,7 @@
         <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -9638,7 +9641,7 @@
         <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -9649,7 +9652,7 @@
         <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -9660,7 +9663,7 @@
         <v>2007</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -9671,7 +9674,7 @@
         <v>194</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -9682,7 +9685,7 @@
         <v>196</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -9693,7 +9696,7 @@
         <v>198</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -9704,7 +9707,7 @@
         <v>200</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -9715,7 +9718,7 @@
         <v>202</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -9726,7 +9729,7 @@
         <v>204</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -9737,7 +9740,7 @@
         <v>206</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -9748,7 +9751,7 @@
         <v>208</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -9759,7 +9762,7 @@
         <v>210</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -9770,7 +9773,7 @@
         <v>212</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -9781,7 +9784,7 @@
         <v>214</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -9792,7 +9795,7 @@
         <v>216</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -9803,7 +9806,7 @@
         <v>218</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -9814,7 +9817,7 @@
         <v>220</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -9825,7 +9828,7 @@
         <v>222</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -9836,7 +9839,7 @@
         <v>224</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -9847,7 +9850,7 @@
         <v>226</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -9858,7 +9861,7 @@
         <v>228</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -9869,7 +9872,7 @@
         <v>230</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -9880,7 +9883,7 @@
         <v>232</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -9891,7 +9894,7 @@
         <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -9902,7 +9905,7 @@
         <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -9924,7 +9927,7 @@
         <v>240</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -9935,7 +9938,7 @@
         <v>242</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -9946,7 +9949,7 @@
         <v>244</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -9957,7 +9960,7 @@
         <v>246</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -9968,7 +9971,7 @@
         <v>248</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -9979,7 +9982,7 @@
         <v>250</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -9990,7 +9993,7 @@
         <v>252</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -10001,7 +10004,7 @@
         <v>254</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -10012,7 +10015,7 @@
         <v>256</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -10023,7 +10026,7 @@
         <v>258</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -10034,7 +10037,7 @@
         <v>260</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -10045,7 +10048,7 @@
         <v>262</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -10056,7 +10059,7 @@
         <v>264</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -10067,7 +10070,7 @@
         <v>266</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -10078,7 +10081,7 @@
         <v>268</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -10089,7 +10092,7 @@
         <v>270</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -10100,7 +10103,7 @@
         <v>272</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -10111,7 +10114,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -10122,7 +10125,7 @@
         <v>276</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -10133,7 +10136,7 @@
         <v>278</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -10144,7 +10147,7 @@
         <v>280</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -10155,7 +10158,7 @@
         <v>282</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -10166,7 +10169,7 @@
         <v>284</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -10177,7 +10180,7 @@
         <v>286</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -10188,7 +10191,7 @@
         <v>288</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -10199,7 +10202,7 @@
         <v>290</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -10210,7 +10213,7 @@
         <v>292</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -10221,7 +10224,7 @@
         <v>294</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -10232,7 +10235,7 @@
         <v>296</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -10243,7 +10246,7 @@
         <v>298</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -10254,7 +10257,7 @@
         <v>300</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -10265,7 +10268,7 @@
         <v>302</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -10276,7 +10279,7 @@
         <v>304</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -10287,7 +10290,7 @@
         <v>306</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -10298,7 +10301,7 @@
         <v>308</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -10309,7 +10312,7 @@
         <v>310</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,7 +10323,7 @@
         <v>312</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -10331,7 +10334,7 @@
         <v>314</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -10342,7 +10345,7 @@
         <v>316</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -10353,7 +10356,7 @@
         <v>318</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -10364,7 +10367,7 @@
         <v>320</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -10375,7 +10378,7 @@
         <v>322</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -10386,7 +10389,7 @@
         <v>324</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -10397,7 +10400,7 @@
         <v>326</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -10408,7 +10411,7 @@
         <v>328</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -10419,7 +10422,7 @@
         <v>330</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -10430,7 +10433,7 @@
         <v>332</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -10441,7 +10444,7 @@
         <v>334</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -10452,7 +10455,7 @@
         <v>336</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -10463,7 +10466,7 @@
         <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -10474,7 +10477,7 @@
         <v>340</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -10485,7 +10488,7 @@
         <v>342</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -10496,7 +10499,7 @@
         <v>344</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -10507,7 +10510,7 @@
         <v>346</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -10518,7 +10521,7 @@
         <v>348</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -10529,7 +10532,7 @@
         <v>350</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -10540,7 +10543,7 @@
         <v>352</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -10551,7 +10554,7 @@
         <v>354</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -10562,7 +10565,7 @@
         <v>356</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -10573,7 +10576,7 @@
         <v>358</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -10584,7 +10587,7 @@
         <v>360</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -10595,7 +10598,7 @@
         <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -10617,7 +10620,7 @@
         <v>366</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -10628,7 +10631,7 @@
         <v>368</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -10639,7 +10642,7 @@
         <v>370</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -10650,7 +10653,7 @@
         <v>372</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -10672,7 +10675,7 @@
         <v>376</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -10683,7 +10686,7 @@
         <v>378</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -10694,7 +10697,7 @@
         <v>380</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -10705,7 +10708,7 @@
         <v>382</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -10716,7 +10719,7 @@
         <v>384</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -10727,7 +10730,7 @@
         <v>386</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -10738,7 +10741,7 @@
         <v>388</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -10749,7 +10752,7 @@
         <v>390</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -10760,7 +10763,7 @@
         <v>392</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -10771,7 +10774,7 @@
         <v>394</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -10782,7 +10785,7 @@
         <v>396</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -10793,7 +10796,7 @@
         <v>398</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -10804,7 +10807,7 @@
         <v>400</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -10815,7 +10818,7 @@
         <v>402</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -10826,7 +10829,7 @@
         <v>404</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -10837,7 +10840,7 @@
         <v>406</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -10848,7 +10851,7 @@
         <v>408</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -10859,7 +10862,7 @@
         <v>410</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -10870,7 +10873,7 @@
         <v>412</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -10881,7 +10884,7 @@
         <v>414</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -10892,7 +10895,7 @@
         <v>416</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -10903,7 +10906,7 @@
         <v>418</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -10914,7 +10917,7 @@
         <v>420</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -10925,7 +10928,7 @@
         <v>422</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -10936,7 +10939,7 @@
         <v>424</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -10947,7 +10950,7 @@
         <v>426</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -10958,7 +10961,7 @@
         <v>428</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10969,7 +10972,7 @@
         <v>430</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10980,7 +10983,7 @@
         <v>432</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -10991,7 +10994,7 @@
         <v>434</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -11002,7 +11005,7 @@
         <v>436</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -11013,7 +11016,7 @@
         <v>438</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -11024,7 +11027,7 @@
         <v>440</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -11035,7 +11038,7 @@
         <v>442</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -11046,7 +11049,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11057,7 +11060,7 @@
         <v>446</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -11068,7 +11071,7 @@
         <v>448</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -11079,7 +11082,7 @@
         <v>450</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -11090,7 +11093,7 @@
         <v>452</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -11101,7 +11104,7 @@
         <v>454</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -11112,7 +11115,7 @@
         <v>456</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -11123,7 +11126,7 @@
         <v>458</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -11134,7 +11137,7 @@
         <v>460</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -11145,7 +11148,7 @@
         <v>462</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -11156,7 +11159,7 @@
         <v>464</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -11167,7 +11170,7 @@
         <v>466</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -11178,7 +11181,7 @@
         <v>468</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -11189,7 +11192,7 @@
         <v>470</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -11200,7 +11203,7 @@
         <v>472</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -11211,7 +11214,7 @@
         <v>474</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -11222,7 +11225,7 @@
         <v>476</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -11233,7 +11236,7 @@
         <v>478</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -11244,7 +11247,7 @@
         <v>480</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -11255,7 +11258,7 @@
         <v>482</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -11266,7 +11269,7 @@
         <v>484</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -11277,7 +11280,7 @@
         <v>486</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -11288,7 +11291,7 @@
         <v>488</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11299,7 +11302,7 @@
         <v>490</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -11310,7 +11313,7 @@
         <v>492</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11321,7 +11324,7 @@
         <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -11332,7 +11335,7 @@
         <v>496</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -11343,7 +11346,7 @@
         <v>498</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -11354,7 +11357,7 @@
         <v>500</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -11365,7 +11368,7 @@
         <v>502</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -11376,7 +11379,7 @@
         <v>504</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -11387,7 +11390,7 @@
         <v>506</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -11398,7 +11401,7 @@
         <v>508</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -11409,7 +11412,7 @@
         <v>510</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -11420,7 +11423,7 @@
         <v>512</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -11431,7 +11434,7 @@
         <v>514</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -11442,7 +11445,7 @@
         <v>516</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -11453,7 +11456,7 @@
         <v>518</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -11464,7 +11467,7 @@
         <v>520</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -11475,7 +11478,7 @@
         <v>522</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -11486,7 +11489,7 @@
         <v>524</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -11497,7 +11500,7 @@
         <v>526</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -11508,7 +11511,7 @@
         <v>528</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -11519,7 +11522,7 @@
         <v>530</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -11530,7 +11533,7 @@
         <v>532</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -11541,7 +11544,7 @@
         <v>534</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -11552,7 +11555,7 @@
         <v>536</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -11563,7 +11566,7 @@
         <v>538</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -11574,7 +11577,7 @@
         <v>540</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -11585,7 +11588,7 @@
         <v>542</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -11596,7 +11599,7 @@
         <v>544</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -11607,7 +11610,7 @@
         <v>546</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -11618,7 +11621,7 @@
         <v>548</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -11629,7 +11632,7 @@
         <v>550</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -11640,7 +11643,7 @@
         <v>552</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -11651,7 +11654,7 @@
         <v>554</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -11662,7 +11665,7 @@
         <v>556</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -11673,7 +11676,7 @@
         <v>558</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -11684,7 +11687,7 @@
         <v>560</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -11695,7 +11698,7 @@
         <v>562</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -11706,7 +11709,7 @@
         <v>564</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -11728,7 +11731,7 @@
         <v>568</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -11739,7 +11742,7 @@
         <v>570</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -11750,7 +11753,7 @@
         <v>572</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -11761,7 +11764,7 @@
         <v>574</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -11772,7 +11775,7 @@
         <v>576</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -11783,7 +11786,7 @@
         <v>578</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11794,7 +11797,7 @@
         <v>580</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -11805,7 +11808,7 @@
         <v>582</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -11816,7 +11819,7 @@
         <v>584</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -11827,7 +11830,7 @@
         <v>586</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -11838,7 +11841,7 @@
         <v>588</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -11849,7 +11852,7 @@
         <v>590</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -11860,7 +11863,7 @@
         <v>592</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -11871,7 +11874,7 @@
         <v>594</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -11882,7 +11885,7 @@
         <v>596</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -11893,7 +11896,7 @@
         <v>598</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -11904,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -11915,7 +11918,7 @@
         <v>602</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -11926,7 +11929,7 @@
         <v>604</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -11937,7 +11940,7 @@
         <v>606</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -11948,7 +11951,7 @@
         <v>608</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2400</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -11959,7 +11962,7 @@
         <v>610</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -11970,7 +11973,7 @@
         <v>612</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -11981,7 +11984,7 @@
         <v>614</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -11992,7 +11995,7 @@
         <v>616</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -12003,7 +12006,7 @@
         <v>618</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -12014,7 +12017,7 @@
         <v>620</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -12025,7 +12028,7 @@
         <v>622</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -12036,7 +12039,7 @@
         <v>624</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -12047,7 +12050,7 @@
         <v>626</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -12058,7 +12061,7 @@
         <v>628</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -12069,7 +12072,7 @@
         <v>630</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -12080,7 +12083,7 @@
         <v>632</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -12091,7 +12094,7 @@
         <v>634</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -12102,7 +12105,7 @@
         <v>636</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -12113,7 +12116,7 @@
         <v>638</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -12124,7 +12127,7 @@
         <v>640</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -12135,7 +12138,7 @@
         <v>642</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -12146,7 +12149,7 @@
         <v>644</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -12157,7 +12160,7 @@
         <v>646</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -12168,7 +12171,7 @@
         <v>648</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -12179,7 +12182,7 @@
         <v>650</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -12190,7 +12193,7 @@
         <v>652</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -12201,7 +12204,7 @@
         <v>654</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -12212,7 +12215,7 @@
         <v>656</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -12223,7 +12226,7 @@
         <v>658</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -12234,7 +12237,7 @@
         <v>660</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -12245,7 +12248,7 @@
         <v>662</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -12256,7 +12259,7 @@
         <v>664</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -12267,7 +12270,7 @@
         <v>666</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -12278,7 +12281,7 @@
         <v>668</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -12289,7 +12292,7 @@
         <v>670</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -12300,7 +12303,7 @@
         <v>672</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -12311,7 +12314,7 @@
         <v>674</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -12322,7 +12325,7 @@
         <v>676</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -12333,7 +12336,7 @@
         <v>678</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -12344,7 +12347,7 @@
         <v>680</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -12355,7 +12358,7 @@
         <v>682</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -12366,7 +12369,7 @@
         <v>684</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -12377,7 +12380,7 @@
         <v>686</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -12388,7 +12391,7 @@
         <v>688</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -12399,7 +12402,7 @@
         <v>690</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -12410,7 +12413,7 @@
         <v>692</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -12421,7 +12424,7 @@
         <v>694</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -12432,7 +12435,7 @@
         <v>696</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -12443,7 +12446,7 @@
         <v>698</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -12454,7 +12457,7 @@
         <v>700</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -12465,7 +12468,7 @@
         <v>702</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -12476,7 +12479,7 @@
         <v>704</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -12487,7 +12490,7 @@
         <v>706</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -12498,7 +12501,7 @@
         <v>708</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -12509,7 +12512,7 @@
         <v>710</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -12520,7 +12523,7 @@
         <v>712</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -12531,7 +12534,7 @@
         <v>714</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -12542,7 +12545,7 @@
         <v>716</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -12553,7 +12556,7 @@
         <v>718</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -12564,7 +12567,7 @@
         <v>2008</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -12575,7 +12578,7 @@
         <v>721</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -12586,7 +12589,7 @@
         <v>723</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -12597,7 +12600,7 @@
         <v>725</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -12608,7 +12611,7 @@
         <v>727</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -12619,7 +12622,7 @@
         <v>729</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -12630,7 +12633,7 @@
         <v>731</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -12641,7 +12644,7 @@
         <v>733</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -12652,7 +12655,7 @@
         <v>735</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -12663,7 +12666,7 @@
         <v>737</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -12674,7 +12677,7 @@
         <v>739</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12685,7 +12688,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -12696,7 +12699,7 @@
         <v>743</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -12707,7 +12710,7 @@
         <v>745</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -12718,7 +12721,7 @@
         <v>747</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -12729,7 +12732,7 @@
         <v>749</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -12740,7 +12743,7 @@
         <v>751</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -12751,7 +12754,7 @@
         <v>753</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -12762,7 +12765,7 @@
         <v>755</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -12773,7 +12776,7 @@
         <v>757</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -12784,7 +12787,7 @@
         <v>759</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -12795,7 +12798,7 @@
         <v>761</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -12806,7 +12809,7 @@
         <v>763</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -12817,7 +12820,7 @@
         <v>765</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -12828,7 +12831,7 @@
         <v>767</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -12839,7 +12842,7 @@
         <v>769</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -12850,7 +12853,7 @@
         <v>771</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -12861,7 +12864,7 @@
         <v>773</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -12872,7 +12875,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -12883,7 +12886,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -12894,7 +12897,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -12905,7 +12908,7 @@
         <v>781</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -12916,7 +12919,7 @@
         <v>783</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -12927,7 +12930,7 @@
         <v>785</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -12938,7 +12941,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -12949,7 +12952,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -12960,7 +12963,7 @@
         <v>791</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -12971,7 +12974,7 @@
         <v>793</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -12982,7 +12985,7 @@
         <v>795</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -12993,7 +12996,7 @@
         <v>797</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -13004,7 +13007,7 @@
         <v>799</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -13015,7 +13018,7 @@
         <v>801</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -13026,7 +13029,7 @@
         <v>803</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -13037,7 +13040,7 @@
         <v>805</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -13048,7 +13051,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2537</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -13059,7 +13062,7 @@
         <v>809</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -13070,7 +13073,7 @@
         <v>811</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -13081,7 +13084,7 @@
         <v>813</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2504</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -13092,7 +13095,7 @@
         <v>815</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -13103,7 +13106,7 @@
         <v>817</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -13114,7 +13117,7 @@
         <v>819</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -13125,7 +13128,7 @@
         <v>821</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -13136,7 +13139,7 @@
         <v>823</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -13147,7 +13150,7 @@
         <v>825</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -13169,7 +13172,7 @@
         <v>829</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -13180,7 +13183,7 @@
         <v>831</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -13191,7 +13194,7 @@
         <v>833</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -13202,7 +13205,7 @@
         <v>835</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -13213,7 +13216,7 @@
         <v>837</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -13224,7 +13227,7 @@
         <v>839</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13235,7 +13238,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -13246,7 +13249,7 @@
         <v>843</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -13257,7 +13260,7 @@
         <v>845</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -13268,7 +13271,7 @@
         <v>847</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -13279,7 +13282,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -13290,7 +13293,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13301,7 +13304,7 @@
         <v>853</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -13312,7 +13315,7 @@
         <v>855</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -13323,7 +13326,7 @@
         <v>857</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -13350,7 +13353,7 @@
         <v>863</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -13361,7 +13364,7 @@
         <v>865</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -13372,7 +13375,7 @@
         <v>867</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -13407,7 +13410,7 @@
         <v>875</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -13418,7 +13421,7 @@
         <v>877</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -13429,7 +13432,7 @@
         <v>879</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13440,7 +13443,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -13451,7 +13454,7 @@
         <v>883</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13462,7 +13465,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -13489,7 +13492,7 @@
         <v>891</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -13516,7 +13519,7 @@
         <v>897</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -13535,7 +13538,7 @@
         <v>901</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -13562,7 +13565,7 @@
         <v>907</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -13573,7 +13576,7 @@
         <v>909</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13584,7 +13587,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -13595,7 +13598,7 @@
         <v>913</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -13646,7 +13649,7 @@
         <v>925</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -13657,7 +13660,7 @@
         <v>927</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -13716,7 +13719,7 @@
         <v>941</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -13743,7 +13746,7 @@
         <v>947</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -13754,7 +13757,7 @@
         <v>949</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -13781,7 +13784,7 @@
         <v>955</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -13792,7 +13795,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -13803,7 +13806,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -13830,7 +13833,7 @@
         <v>965</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -13841,7 +13844,7 @@
         <v>967</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -13868,7 +13871,7 @@
         <v>973</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -13879,7 +13882,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -13890,7 +13893,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -13917,7 +13920,7 @@
         <v>983</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -13944,7 +13947,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -13955,7 +13958,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -13966,7 +13969,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -13977,7 +13980,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -13988,7 +13991,7 @@
         <v>997</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -13999,7 +14002,7 @@
         <v>999</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14010,7 +14013,7 @@
         <v>1001</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14021,7 +14024,7 @@
         <v>1003</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14032,7 +14035,7 @@
         <v>1005</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -14043,7 +14046,7 @@
         <v>1007</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -14054,7 +14057,7 @@
         <v>1009</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -14065,7 +14068,7 @@
         <v>1011</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -14076,7 +14079,7 @@
         <v>1013</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -14087,7 +14090,7 @@
         <v>1015</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -14098,7 +14101,7 @@
         <v>1017</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -14144,7 +14147,7 @@
         <v>1027</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -14171,7 +14174,7 @@
         <v>1033</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -14182,7 +14185,7 @@
         <v>1035</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -14215,7 +14218,7 @@
         <v>1041</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -14226,7 +14229,7 @@
         <v>1043</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -14237,7 +14240,7 @@
         <v>1045</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -14248,7 +14251,7 @@
         <v>1047</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -14291,7 +14294,7 @@
         <v>1057</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -14302,7 +14305,7 @@
         <v>1059</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -14313,7 +14316,7 @@
         <v>1061</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -14324,7 +14327,7 @@
         <v>1063</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -14335,7 +14338,7 @@
         <v>1065</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -14346,7 +14349,7 @@
         <v>1067</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -14357,7 +14360,7 @@
         <v>1069</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -14368,7 +14371,7 @@
         <v>1071</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -14379,7 +14382,7 @@
         <v>1073</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -14390,7 +14393,7 @@
         <v>1075</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -14401,7 +14404,7 @@
         <v>1077</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -14412,7 +14415,7 @@
         <v>1079</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -14423,7 +14426,7 @@
         <v>1081</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -14434,7 +14437,7 @@
         <v>1083</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14445,7 +14448,7 @@
         <v>1085</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -14456,7 +14459,7 @@
         <v>1087</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -14467,7 +14470,7 @@
         <v>1089</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -14478,7 +14481,7 @@
         <v>1091</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -14489,7 +14492,7 @@
         <v>1093</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -14580,7 +14583,7 @@
         <v>1115</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -14591,7 +14594,7 @@
         <v>1117</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -14602,7 +14605,7 @@
         <v>1119</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -14613,7 +14616,7 @@
         <v>1121</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -14848,7 +14851,7 @@
         <v>1179</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -14907,7 +14910,7 @@
         <v>1193</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -14918,7 +14921,7 @@
         <v>1195</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,7 +14932,7 @@
         <v>1197</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -14948,7 +14951,7 @@
         <v>1201</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -15015,7 +15018,7 @@
         <v>1217</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -15162,7 +15165,7 @@
         <v>1253</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -15245,7 +15248,7 @@
         <v>1273</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -15280,7 +15283,7 @@
         <v>1281</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -15403,7 +15406,7 @@
         <v>1310</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -15414,7 +15417,7 @@
         <v>1312</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -15425,7 +15428,7 @@
         <v>1314</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -15436,7 +15439,7 @@
         <v>1316</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -15447,7 +15450,7 @@
         <v>1318</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -15474,7 +15477,7 @@
         <v>1324</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
@@ -15549,7 +15552,7 @@
         <v>1342</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -15600,7 +15603,7 @@
         <v>1354</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -15611,7 +15614,7 @@
         <v>1356</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -15622,7 +15625,7 @@
         <v>1358</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -15761,7 +15764,7 @@
         <v>1392</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
@@ -15772,7 +15775,7 @@
         <v>1394</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -15783,7 +15786,7 @@
         <v>1396</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -15794,7 +15797,7 @@
         <v>1398</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -15869,7 +15872,7 @@
         <v>1416</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -15880,7 +15883,7 @@
         <v>1418</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -15891,7 +15894,7 @@
         <v>1420</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -15902,7 +15905,7 @@
         <v>1422</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -15913,7 +15916,7 @@
         <v>1424</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -15924,7 +15927,7 @@
         <v>1426</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -15935,7 +15938,7 @@
         <v>1428</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -15946,7 +15949,7 @@
         <v>1430</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -15957,7 +15960,7 @@
         <v>1432</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -15968,7 +15971,7 @@
         <v>1434</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -15979,7 +15982,7 @@
         <v>1436</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -15990,7 +15993,7 @@
         <v>1438</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -16001,7 +16004,7 @@
         <v>1440</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -16012,7 +16015,7 @@
         <v>1442</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -16023,7 +16026,7 @@
         <v>1444</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -16034,7 +16037,7 @@
         <v>1446</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -16045,7 +16048,7 @@
         <v>1448</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -16056,7 +16059,7 @@
         <v>1450</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -16067,7 +16070,7 @@
         <v>1452</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -16078,7 +16081,7 @@
         <v>1454</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -16089,7 +16092,7 @@
         <v>1456</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -16252,7 +16255,7 @@
         <v>1496</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -16295,7 +16298,7 @@
         <v>1506</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
@@ -16306,7 +16309,7 @@
         <v>1508</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
@@ -16325,7 +16328,7 @@
         <v>1512</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
@@ -16336,7 +16339,7 @@
         <v>1514</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
@@ -16483,7 +16486,7 @@
         <v>1550</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -16494,7 +16497,7 @@
         <v>1552</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -16505,7 +16508,7 @@
         <v>1554</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
@@ -16556,7 +16559,7 @@
         <v>1566</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -16578,7 +16581,7 @@
         <v>1570</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
@@ -16589,7 +16592,7 @@
         <v>1572</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
@@ -16600,7 +16603,7 @@
         <v>1574</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -16611,7 +16614,7 @@
         <v>1576</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
@@ -16670,7 +16673,7 @@
         <v>1590</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
@@ -16681,7 +16684,7 @@
         <v>1592</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
@@ -16724,15 +16727,18 @@
         <v>1602</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="3" t="s">
         <v>1603</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>1604</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>2668</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
@@ -16767,7 +16773,7 @@
         <v>1612</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -16778,7 +16784,7 @@
         <v>1614</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -16789,7 +16795,7 @@
         <v>1616</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -16800,7 +16806,7 @@
         <v>1618</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -16811,7 +16817,7 @@
         <v>1620</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
@@ -16822,7 +16828,7 @@
         <v>1622</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -16833,7 +16839,7 @@
         <v>1624</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
@@ -16844,7 +16850,7 @@
         <v>1626</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -16855,7 +16861,7 @@
         <v>1628</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -16866,7 +16872,7 @@
         <v>1630</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
@@ -16877,7 +16883,7 @@
         <v>1632</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -16888,7 +16894,7 @@
         <v>1634</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
@@ -16899,15 +16905,18 @@
         <v>1636</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="3" t="s">
         <v>1637</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>1638</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>2670</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -16966,7 +16975,7 @@
         <v>1652</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -17001,7 +17010,7 @@
         <v>1660</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
@@ -17028,7 +17037,7 @@
         <v>1666</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
@@ -17087,7 +17096,7 @@
         <v>1680</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
@@ -17098,7 +17107,7 @@
         <v>1682</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -17109,7 +17118,7 @@
         <v>1684</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -17120,7 +17129,7 @@
         <v>1686</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -17131,7 +17140,7 @@
         <v>1688</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -17142,7 +17151,7 @@
         <v>1690</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -17153,7 +17162,7 @@
         <v>1692</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -17164,7 +17173,7 @@
         <v>1694</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -17175,7 +17184,7 @@
         <v>1696</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -17186,7 +17195,7 @@
         <v>1698</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -17197,7 +17206,7 @@
         <v>1700</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
@@ -17208,7 +17217,7 @@
         <v>1702</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -17219,7 +17228,7 @@
         <v>1704</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -17230,7 +17239,7 @@
         <v>1706</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -17241,7 +17250,7 @@
         <v>1708</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -17252,7 +17261,7 @@
         <v>1710</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -17263,7 +17272,7 @@
         <v>1712</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -17274,7 +17283,7 @@
         <v>1714</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -17285,7 +17294,7 @@
         <v>1716</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -17296,7 +17305,7 @@
         <v>1718</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
@@ -17350,7 +17359,7 @@
         <v>1730</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -17361,7 +17370,7 @@
         <v>1732</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -17372,7 +17381,7 @@
         <v>1734</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -17383,7 +17392,7 @@
         <v>1736</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -17394,7 +17403,7 @@
         <v>1738</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -17405,7 +17414,7 @@
         <v>1740</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -17416,7 +17425,7 @@
         <v>1742</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -17427,7 +17436,7 @@
         <v>1744</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -17438,7 +17447,7 @@
         <v>1746</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
@@ -17449,7 +17458,7 @@
         <v>1748</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -17460,7 +17469,7 @@
         <v>1750</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
@@ -17471,7 +17480,7 @@
         <v>1752</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -17482,7 +17491,7 @@
         <v>1754</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
@@ -17493,7 +17502,7 @@
         <v>1756</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -17504,7 +17513,7 @@
         <v>1758</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
@@ -17515,7 +17524,7 @@
         <v>1760</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -17534,7 +17543,7 @@
         <v>1764</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
@@ -17545,7 +17554,7 @@
         <v>1766</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -17556,7 +17565,7 @@
         <v>1768</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -17567,7 +17576,7 @@
         <v>1770</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -17618,7 +17627,7 @@
         <v>1782</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -17629,7 +17638,7 @@
         <v>1784</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
@@ -17656,7 +17665,7 @@
         <v>1790</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -17667,7 +17676,7 @@
         <v>1792</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -17686,7 +17695,7 @@
         <v>1796</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -17697,7 +17706,7 @@
         <v>1798</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -17708,7 +17717,7 @@
         <v>1800</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -17719,7 +17728,7 @@
         <v>1802</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -17730,7 +17739,7 @@
         <v>1804</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -17741,7 +17750,7 @@
         <v>1806</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -17752,7 +17761,7 @@
         <v>1808</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -17763,7 +17772,7 @@
         <v>1810</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
@@ -17774,7 +17783,7 @@
         <v>1812</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
@@ -17785,7 +17794,7 @@
         <v>1814</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
@@ -17796,7 +17805,7 @@
         <v>1816</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
@@ -17807,7 +17816,7 @@
         <v>1818</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
@@ -17858,7 +17867,7 @@
         <v>1829</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -17877,7 +17886,7 @@
         <v>1833</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
@@ -17896,7 +17905,7 @@
         <v>1837</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
@@ -17947,7 +17956,7 @@
         <v>1848</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -17958,7 +17967,7 @@
         <v>1850</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
@@ -17969,7 +17978,7 @@
         <v>1852</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -17980,7 +17989,7 @@
         <v>1854</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -17991,7 +18000,7 @@
         <v>1856</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -18002,7 +18011,7 @@
         <v>1858</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -18013,7 +18022,7 @@
         <v>1860</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -18024,7 +18033,7 @@
         <v>1862</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
@@ -18035,7 +18044,7 @@
         <v>1864</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -18046,7 +18055,7 @@
         <v>1866</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
@@ -18057,7 +18066,7 @@
         <v>1868</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -18108,7 +18117,7 @@
         <v>1880</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -18119,7 +18128,7 @@
         <v>1882</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -18130,7 +18139,7 @@
         <v>1884</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -18141,7 +18150,7 @@
         <v>1886</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -18152,7 +18161,7 @@
         <v>1888</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -18371,7 +18380,7 @@
         <v>1942</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -18398,7 +18407,7 @@
         <v>1948</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
@@ -18449,7 +18458,7 @@
         <v>1960</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -18548,7 +18557,7 @@
         <v>1984</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -18559,7 +18568,7 @@
         <v>1986</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
@@ -18570,7 +18579,7 @@
         <v>1988</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -18581,7 +18590,7 @@
         <v>1990</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -18592,7 +18601,7 @@
         <v>1992</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
@@ -18603,7 +18612,7 @@
         <v>1994</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
@@ -18614,7 +18623,7 @@
         <v>1996</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
@@ -18625,7 +18634,7 @@
         <v>1998</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -18636,7 +18645,7 @@
         <v>2000</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
@@ -18647,7 +18656,7 @@
         <v>2002</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
@@ -18658,7 +18667,7 @@
         <v>2004</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
     </row>
   </sheetData>

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -6107,42 +6107,6 @@
     <t>Некорректная авторизация</t>
   </si>
   <si>
-    <t>Обход пути: '../filedir'</t>
-  </si>
-  <si>
-    <t>Обход пути: '/../filedir'</t>
-  </si>
-  <si>
-    <t>Обход пути: '..\filedir'</t>
-  </si>
-  <si>
-    <t>Обход пути: '\..\filename'</t>
-  </si>
-  <si>
-    <t>Обход пути: '....//'</t>
-  </si>
-  <si>
-    <t>Обход пути: '.../...//'</t>
-  </si>
-  <si>
-    <t>Обход пути: '/dir/../filename'</t>
-  </si>
-  <si>
-    <t>Обход пути: '\dir\..\filename'</t>
-  </si>
-  <si>
-    <t>Обход пути: 'dir/../../filename'</t>
-  </si>
-  <si>
-    <t>Обход пути: '...' (три точки)</t>
-  </si>
-  <si>
-    <t>Обход пути: '....' (несколько точек)</t>
-  </si>
-  <si>
-    <t>Обход с использованием абсолютного пути</t>
-  </si>
-  <si>
     <t>Отсутствие проверки XML</t>
   </si>
   <si>
@@ -6377,12 +6341,6 @@
     <t>Уязвимости, связанные с эквивалентностью и обходом пути</t>
   </si>
   <si>
-    <t>Некорректные ограничения путей для каталогов (Обход пути)</t>
-  </si>
-  <si>
-    <t>Обход относительного пути</t>
-  </si>
-  <si>
     <t>Уязвимости, связанные со средой</t>
   </si>
   <si>
@@ -6434,18 +6392,6 @@
     <t>Некорректное разрешение эквивалентности пути</t>
   </si>
   <si>
-    <t>Обход пути: '/здесь/абсолютный/путь'</t>
-  </si>
-  <si>
-    <t>Обход пути: '\здесь\абсолютный\путь'</t>
-  </si>
-  <si>
-    <t>Обход пути: 'C:имяпапки'</t>
-  </si>
-  <si>
-    <t>Обход пути: '\\UNC\общий\ресурс\' (общий ресурс UNC Windows)</t>
-  </si>
-  <si>
     <t>Эквивалентность пути: 'имяфайла.' (путь заканчивается точкой)</t>
   </si>
   <si>
@@ -8037,6 +7983,60 @@
   </si>
   <si>
     <t>Разыменование непроверенного указателя</t>
+  </si>
+  <si>
+    <t>Некорректные ограничения путей для каталогов (Подмена пути)</t>
+  </si>
+  <si>
+    <t>Подмена относительного пути</t>
+  </si>
+  <si>
+    <t>Подмена пути: '../filedir'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '/../filedir'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '/dir/../filename'</t>
+  </si>
+  <si>
+    <t>Подмена пути: 'dir/../../filename'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '..\filedir'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '\..\filename'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '\dir\..\filename'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '...' (три точки)</t>
+  </si>
+  <si>
+    <t>Подмена пути: '....' (несколько точек)</t>
+  </si>
+  <si>
+    <t>Подмена пути: '....//'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '.../...//'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '/здесь/абсолютный/путь'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '\здесь\абсолютный\путь'</t>
+  </si>
+  <si>
+    <t>Подмена пути: 'C:имяпапки'</t>
+  </si>
+  <si>
+    <t>Подмена пути: '\\UNC\общий\ресурс\' (общий ресурс UNC Windows)</t>
+  </si>
+  <si>
+    <t>Подмена абсолютного пути</t>
   </si>
 </sst>
 </file>
@@ -8565,8 +8565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A816" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A823" sqref="A823"/>
+    <sheetView tabSelected="1" topLeftCell="A969" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B982" sqref="B982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8596,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2098</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8607,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2119</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8618,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2120</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2121</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8651,7 +8651,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2122</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8662,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2123</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2127</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -8684,7 +8684,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2128</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -8695,7 +8695,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2129</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -8706,7 +8706,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2130</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8717,7 +8717,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2131</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2132</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -8739,7 +8739,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2133</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2134</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8761,7 +8761,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2089</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -8783,7 +8783,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2091</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8794,7 +8794,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8816,7 +8816,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -8827,7 +8827,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2117</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2118</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2027</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -8860,7 +8860,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2028</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -8871,7 +8871,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2033</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -8882,7 +8882,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2035</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -8893,7 +8893,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2029</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8904,7 +8904,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2030</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -8915,7 +8915,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2034</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2034</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2036</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8948,7 +8948,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2037</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8959,7 +8959,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2031</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -8970,7 +8970,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2032</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -8981,7 +8981,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2038</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -8992,7 +8992,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2136</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9003,7 +9003,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2137</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2138</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9025,7 +9025,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2139</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9036,7 +9036,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2135</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9047,7 +9047,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2140</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9058,7 +9058,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2141</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2142</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9080,7 +9080,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2143</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -9091,7 +9091,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2124</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -9102,7 +9102,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2125</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -9113,7 +9113,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2126</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2144</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -9135,7 +9135,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2145</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -9146,7 +9146,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>2146</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -9157,7 +9157,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2147</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -9168,7 +9168,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2148</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -9179,7 +9179,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>2149</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -9190,7 +9190,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>2150</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -9201,7 +9201,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>2151</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -9212,7 +9212,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2152</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2153</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -9234,7 +9234,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2154</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -9245,7 +9245,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2171</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -9256,7 +9256,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2172</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -9267,7 +9267,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2155</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -9278,7 +9278,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2170</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,7 +9289,7 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2169</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2168</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -9311,7 +9311,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2173</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -9322,7 +9322,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2174</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
         <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2175</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -9344,7 +9344,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2176</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -9355,7 +9355,7 @@
         <v>139</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2157</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
         <v>141</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2156</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -9377,7 +9377,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2177</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -9399,7 +9399,7 @@
         <v>2005</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2186</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -9410,7 +9410,7 @@
         <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2187</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -9421,7 +9421,7 @@
         <v>150</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2185</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -9432,7 +9432,7 @@
         <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2184</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -9443,7 +9443,7 @@
         <v>2006</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2183</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -9454,7 +9454,7 @@
         <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2182</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,7 +9465,7 @@
         <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2188</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
         <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -9487,7 +9487,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2190</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
         <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2191</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -9509,7 +9509,7 @@
         <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2192</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -9520,7 +9520,7 @@
         <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2193</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -9531,7 +9531,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2194</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -9542,7 +9542,7 @@
         <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2195</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -9553,7 +9553,7 @@
         <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2178</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -9564,7 +9564,7 @@
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2180</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -9575,7 +9575,7 @@
         <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2179</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -9586,7 +9586,7 @@
         <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2181</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -9597,7 +9597,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -9608,7 +9608,7 @@
         <v>183</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2113</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -9619,7 +9619,7 @@
         <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2114</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -9630,7 +9630,7 @@
         <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2196</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -9641,7 +9641,7 @@
         <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2197</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
         <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2198</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -9663,7 +9663,7 @@
         <v>2007</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2199</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,7 +9674,7 @@
         <v>194</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>2200</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -9685,7 +9685,7 @@
         <v>196</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2159</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -9696,7 +9696,7 @@
         <v>198</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -9707,7 +9707,7 @@
         <v>200</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2244</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
         <v>202</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>2245</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -9729,7 +9729,7 @@
         <v>204</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2264</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -9740,7 +9740,7 @@
         <v>206</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>2265</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
         <v>208</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2266</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -9762,7 +9762,7 @@
         <v>210</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>2267</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -9773,7 +9773,7 @@
         <v>212</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>2268</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>214</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>2263</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -9795,7 +9795,7 @@
         <v>216</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>2262</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -9806,7 +9806,7 @@
         <v>218</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>2246</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,7 +9817,7 @@
         <v>220</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2039</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -9828,7 +9828,7 @@
         <v>222</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>2160</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -9839,7 +9839,7 @@
         <v>224</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2161</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -9850,7 +9850,7 @@
         <v>226</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2162</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -9861,7 +9861,7 @@
         <v>228</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2163</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -9872,7 +9872,7 @@
         <v>230</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -9883,7 +9883,7 @@
         <v>232</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2165</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -9894,7 +9894,7 @@
         <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2099</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -9905,7 +9905,7 @@
         <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -9927,7 +9927,7 @@
         <v>240</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>2092</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -9938,7 +9938,7 @@
         <v>242</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,7 +9949,7 @@
         <v>244</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -9960,7 +9960,7 @@
         <v>246</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2040</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,7 +9971,7 @@
         <v>248</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2044</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>250</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
         <v>252</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,7 +10004,7 @@
         <v>254</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,7 +10015,7 @@
         <v>256</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2166</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,7 +10026,7 @@
         <v>258</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2105</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -10037,7 +10037,7 @@
         <v>260</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,7 +10048,7 @@
         <v>262</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>2243</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,7 +10059,7 @@
         <v>264</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>2247</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,7 +10070,7 @@
         <v>266</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2248</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
         <v>268</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -10092,7 +10092,7 @@
         <v>270</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>2167</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,7 +10103,7 @@
         <v>272</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -10114,7 +10114,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -10125,7 +10125,7 @@
         <v>276</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>2108</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -10136,7 +10136,7 @@
         <v>278</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>2109</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -10147,7 +10147,7 @@
         <v>280</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>2110</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -10158,7 +10158,7 @@
         <v>282</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -10169,7 +10169,7 @@
         <v>284</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -10180,7 +10180,7 @@
         <v>286</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>2229</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -10191,7 +10191,7 @@
         <v>288</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2235</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -10202,7 +10202,7 @@
         <v>290</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>2236</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -10213,7 +10213,7 @@
         <v>292</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>2237</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -10224,7 +10224,7 @@
         <v>294</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2238</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
         <v>296</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>2239</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -10246,7 +10246,7 @@
         <v>298</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>2240</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,7 +10257,7 @@
         <v>300</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>2241</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -10268,7 +10268,7 @@
         <v>302</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>2242</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -10279,7 +10279,7 @@
         <v>304</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>2234</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -10290,7 +10290,7 @@
         <v>306</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>2233</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -10301,7 +10301,7 @@
         <v>308</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>2232</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -10312,7 +10312,7 @@
         <v>310</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>2230</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -10323,7 +10323,7 @@
         <v>312</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>2231</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,7 +10334,7 @@
         <v>314</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>2249</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -10345,7 +10345,7 @@
         <v>316</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>2250</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -10356,7 +10356,7 @@
         <v>318</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>2251</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>320</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>2252</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -10378,7 +10378,7 @@
         <v>322</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2253</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -10389,7 +10389,7 @@
         <v>324</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>2254</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -10400,7 +10400,7 @@
         <v>326</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2255</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -10411,7 +10411,7 @@
         <v>328</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>2256</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -10422,7 +10422,7 @@
         <v>330</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2257</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -10433,7 +10433,7 @@
         <v>332</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2258</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -10444,7 +10444,7 @@
         <v>334</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2259</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -10455,7 +10455,7 @@
         <v>336</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2260</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -10466,7 +10466,7 @@
         <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2261</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -10477,7 +10477,7 @@
         <v>340</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -10488,7 +10488,7 @@
         <v>342</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -10499,7 +10499,7 @@
         <v>344</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -10510,7 +10510,7 @@
         <v>346</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2213</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
         <v>348</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2214</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -10532,7 +10532,7 @@
         <v>350</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2215</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -10543,7 +10543,7 @@
         <v>352</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2216</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -10554,7 +10554,7 @@
         <v>354</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2269</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -10565,7 +10565,7 @@
         <v>356</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2270</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,7 +10576,7 @@
         <v>358</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2271</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
         <v>360</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2272</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -10598,7 +10598,7 @@
         <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2217</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -10620,7 +10620,7 @@
         <v>366</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2201</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
         <v>368</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2218</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -10642,7 +10642,7 @@
         <v>370</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2219</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -10653,7 +10653,7 @@
         <v>372</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2220</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -10675,7 +10675,7 @@
         <v>376</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -10686,7 +10686,7 @@
         <v>378</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -10697,7 +10697,7 @@
         <v>380</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -10708,7 +10708,7 @@
         <v>382</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -10719,7 +10719,7 @@
         <v>384</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,7 +10730,7 @@
         <v>386</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -10741,7 +10741,7 @@
         <v>388</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>2207</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -10752,7 +10752,7 @@
         <v>390</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -10763,7 +10763,7 @@
         <v>392</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -10774,7 +10774,7 @@
         <v>394</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2210</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -10785,7 +10785,7 @@
         <v>396</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2042</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -10796,7 +10796,7 @@
         <v>398</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>2273</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -10807,7 +10807,7 @@
         <v>400</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>2274</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -10818,7 +10818,7 @@
         <v>402</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2277</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -10829,7 +10829,7 @@
         <v>404</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>2276</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -10840,7 +10840,7 @@
         <v>406</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2275</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -10851,7 +10851,7 @@
         <v>408</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2278</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -10862,7 +10862,7 @@
         <v>410</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2279</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -10873,7 +10873,7 @@
         <v>412</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>2280</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -10884,7 +10884,7 @@
         <v>414</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2221</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -10895,7 +10895,7 @@
         <v>416</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2222</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -10906,7 +10906,7 @@
         <v>418</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2223</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
         <v>420</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2224</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -10928,7 +10928,7 @@
         <v>422</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>2225</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -10939,7 +10939,7 @@
         <v>424</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>2226</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -10950,7 +10950,7 @@
         <v>426</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2227</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -10961,7 +10961,7 @@
         <v>428</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2228</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10972,7 +10972,7 @@
         <v>430</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10983,7 +10983,7 @@
         <v>432</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -10994,7 +10994,7 @@
         <v>434</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>2358</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -11005,7 +11005,7 @@
         <v>436</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2359</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -11016,7 +11016,7 @@
         <v>438</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2360</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -11027,7 +11027,7 @@
         <v>440</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2361</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,7 +11038,7 @@
         <v>442</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2362</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,7 +11049,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2363</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11060,7 +11060,7 @@
         <v>446</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -11071,7 +11071,7 @@
         <v>448</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2364</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -11082,7 +11082,7 @@
         <v>450</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2367</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -11093,7 +11093,7 @@
         <v>452</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2368</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -11104,7 +11104,7 @@
         <v>454</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2365</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -11115,7 +11115,7 @@
         <v>456</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2366</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -11126,7 +11126,7 @@
         <v>458</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2369</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -11137,7 +11137,7 @@
         <v>460</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>2370</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -11148,7 +11148,7 @@
         <v>462</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2371</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -11159,7 +11159,7 @@
         <v>464</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>2372</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -11170,7 +11170,7 @@
         <v>466</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2373</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -11181,7 +11181,7 @@
         <v>468</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2374</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -11192,7 +11192,7 @@
         <v>470</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2375</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -11203,7 +11203,7 @@
         <v>472</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2376</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
         <v>474</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2377</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -11225,7 +11225,7 @@
         <v>476</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2378</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -11236,7 +11236,7 @@
         <v>478</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2379</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -11247,7 +11247,7 @@
         <v>480</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2380</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -11258,7 +11258,7 @@
         <v>482</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2381</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -11269,7 +11269,7 @@
         <v>484</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2382</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -11280,7 +11280,7 @@
         <v>486</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2384</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -11291,7 +11291,7 @@
         <v>488</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2383</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11302,7 +11302,7 @@
         <v>490</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -11313,7 +11313,7 @@
         <v>492</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2289</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
         <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -11335,7 +11335,7 @@
         <v>496</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2288</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -11346,7 +11346,7 @@
         <v>498</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2287</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -11357,7 +11357,7 @@
         <v>500</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2286</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>502</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2285</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -11379,7 +11379,7 @@
         <v>504</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2045</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -11390,7 +11390,7 @@
         <v>506</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2282</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -11401,7 +11401,7 @@
         <v>508</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2283</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -11412,7 +11412,7 @@
         <v>510</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2284</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
         <v>512</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2281</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -11434,7 +11434,7 @@
         <v>514</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2046</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -11445,7 +11445,7 @@
         <v>516</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -11456,7 +11456,7 @@
         <v>518</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -11467,7 +11467,7 @@
         <v>520</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2049</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -11478,7 +11478,7 @@
         <v>522</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -11489,7 +11489,7 @@
         <v>524</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2051</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -11500,7 +11500,7 @@
         <v>526</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2052</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -11511,7 +11511,7 @@
         <v>528</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -11522,7 +11522,7 @@
         <v>530</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2385</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -11533,7 +11533,7 @@
         <v>532</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2386</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -11544,7 +11544,7 @@
         <v>534</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -11555,7 +11555,7 @@
         <v>536</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2387</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -11566,7 +11566,7 @@
         <v>538</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2388</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
         <v>540</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2389</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -11588,7 +11588,7 @@
         <v>542</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2390</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -11599,7 +11599,7 @@
         <v>544</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2391</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -11610,7 +11610,7 @@
         <v>546</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -11621,7 +11621,7 @@
         <v>548</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -11632,7 +11632,7 @@
         <v>550</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -11643,7 +11643,7 @@
         <v>552</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2475</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -11654,7 +11654,7 @@
         <v>554</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2476</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -11665,7 +11665,7 @@
         <v>556</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2477</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
         <v>558</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2478</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -11687,7 +11687,7 @@
         <v>560</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2479</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -11698,7 +11698,7 @@
         <v>562</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2480</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
         <v>564</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2058</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -11731,7 +11731,7 @@
         <v>568</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2059</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
         <v>570</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2060</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -11753,7 +11753,7 @@
         <v>572</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2292</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,7 +11764,7 @@
         <v>574</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2291</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -11775,7 +11775,7 @@
         <v>576</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2290</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -11786,7 +11786,7 @@
         <v>578</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2419</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11797,7 +11797,7 @@
         <v>580</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -11808,7 +11808,7 @@
         <v>582</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2420</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
         <v>584</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2421</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -11830,7 +11830,7 @@
         <v>586</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>2392</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
         <v>588</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2393</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>590</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -11863,7 +11863,7 @@
         <v>592</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -11874,7 +11874,7 @@
         <v>594</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -11885,7 +11885,7 @@
         <v>596</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2395</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -11896,7 +11896,7 @@
         <v>598</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -11907,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -11918,7 +11918,7 @@
         <v>602</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>2396</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -11929,7 +11929,7 @@
         <v>604</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>2397</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -11940,7 +11940,7 @@
         <v>606</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>2398</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -11951,7 +11951,7 @@
         <v>608</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2669</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -11962,7 +11962,7 @@
         <v>610</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>2399</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -11973,7 +11973,7 @@
         <v>612</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2400</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -11984,7 +11984,7 @@
         <v>614</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>2401</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -11995,7 +11995,7 @@
         <v>616</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -12006,7 +12006,7 @@
         <v>618</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>2064</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -12017,7 +12017,7 @@
         <v>620</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2065</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -12028,7 +12028,7 @@
         <v>622</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -12039,7 +12039,7 @@
         <v>624</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>2067</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -12050,7 +12050,7 @@
         <v>626</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>2294</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -12061,7 +12061,7 @@
         <v>628</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>2295</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -12072,7 +12072,7 @@
         <v>630</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>2296</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -12083,7 +12083,7 @@
         <v>632</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>2297</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -12094,7 +12094,7 @@
         <v>634</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2293</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -12105,7 +12105,7 @@
         <v>636</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>2298</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -12116,7 +12116,7 @@
         <v>638</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2068</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -12127,7 +12127,7 @@
         <v>640</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>2425</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -12138,7 +12138,7 @@
         <v>642</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>2424</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -12149,7 +12149,7 @@
         <v>644</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>2069</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -12160,7 +12160,7 @@
         <v>646</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2426</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -12171,7 +12171,7 @@
         <v>648</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -12182,7 +12182,7 @@
         <v>650</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -12193,7 +12193,7 @@
         <v>652</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>2402</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -12204,7 +12204,7 @@
         <v>654</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2429</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -12215,7 +12215,7 @@
         <v>656</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>2403</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -12226,7 +12226,7 @@
         <v>658</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
         <v>660</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>2300</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -12248,7 +12248,7 @@
         <v>662</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>2430</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -12259,7 +12259,7 @@
         <v>664</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>2404</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -12270,7 +12270,7 @@
         <v>666</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2301</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
         <v>668</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2302</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -12292,7 +12292,7 @@
         <v>670</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>2299</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -12303,7 +12303,7 @@
         <v>672</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>2303</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -12314,7 +12314,7 @@
         <v>674</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2304</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -12325,7 +12325,7 @@
         <v>676</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>2405</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
         <v>678</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2481</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -12347,7 +12347,7 @@
         <v>680</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>2482</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -12358,7 +12358,7 @@
         <v>682</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>2483</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +12369,7 @@
         <v>684</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2484</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
         <v>686</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>2485</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -12391,7 +12391,7 @@
         <v>688</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>2406</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
         <v>690</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>2407</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -12413,7 +12413,7 @@
         <v>692</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>2486</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -12424,7 +12424,7 @@
         <v>694</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2487</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -12435,7 +12435,7 @@
         <v>696</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>2488</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -12446,7 +12446,7 @@
         <v>698</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2489</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -12457,7 +12457,7 @@
         <v>700</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -12468,7 +12468,7 @@
         <v>702</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>2072</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -12479,7 +12479,7 @@
         <v>704</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>2305</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -12490,7 +12490,7 @@
         <v>706</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
         <v>708</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>2490</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -12512,7 +12512,7 @@
         <v>710</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>2491</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -12523,7 +12523,7 @@
         <v>712</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2492</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -12534,7 +12534,7 @@
         <v>714</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>2408</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -12545,7 +12545,7 @@
         <v>716</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2493</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -12556,7 +12556,7 @@
         <v>718</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>2409</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -12567,7 +12567,7 @@
         <v>2008</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>2306</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -12578,7 +12578,7 @@
         <v>721</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2410</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -12589,7 +12589,7 @@
         <v>723</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2411</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -12600,7 +12600,7 @@
         <v>725</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2412</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -12611,7 +12611,7 @@
         <v>727</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>2413</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -12622,7 +12622,7 @@
         <v>729</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>2307</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -12633,7 +12633,7 @@
         <v>731</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>2308</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -12644,7 +12644,7 @@
         <v>733</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2074</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
         <v>735</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -12666,7 +12666,7 @@
         <v>737</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2434</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -12677,7 +12677,7 @@
         <v>739</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2435</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12688,7 +12688,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -12699,7 +12699,7 @@
         <v>743</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2522</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
         <v>745</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2523</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>747</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -12732,7 +12732,7 @@
         <v>749</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2432</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -12743,7 +12743,7 @@
         <v>751</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12754,7 @@
         <v>753</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
         <v>755</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>2431</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -12776,7 +12776,7 @@
         <v>757</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>2418</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
         <v>759</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>2417</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -12798,7 +12798,7 @@
         <v>761</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2433</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>763</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2076</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -12820,7 +12820,7 @@
         <v>765</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2524</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -12831,7 +12831,7 @@
         <v>767</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2525</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -12842,7 +12842,7 @@
         <v>769</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2495</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -12853,7 +12853,7 @@
         <v>771</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2496</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
         <v>773</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>2497</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -12875,7 +12875,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2526</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -12886,7 +12886,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -12897,7 +12897,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2527</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
         <v>781</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2498</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -12919,7 +12919,7 @@
         <v>783</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>2499</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
         <v>785</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>2309</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +12952,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2530</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -12963,7 +12963,7 @@
         <v>791</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>2436</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -12974,7 +12974,7 @@
         <v>793</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>795</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>2310</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
         <v>797</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>2311</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -13007,7 +13007,7 @@
         <v>799</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2312</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -13018,7 +13018,7 @@
         <v>801</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2531</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>803</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2532</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -13040,7 +13040,7 @@
         <v>805</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2533</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -13051,7 +13051,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2666</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -13062,7 +13062,7 @@
         <v>809</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2500</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -13073,7 +13073,7 @@
         <v>811</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2501</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -13084,7 +13084,7 @@
         <v>813</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2667</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -13095,7 +13095,7 @@
         <v>815</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2502</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>817</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>2313</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>819</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2437</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>821</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2314</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -13139,7 +13139,7 @@
         <v>823</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>2315</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -13150,7 +13150,7 @@
         <v>825</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2077</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -13172,7 +13172,7 @@
         <v>829</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2439</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -13183,7 +13183,7 @@
         <v>831</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2438</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -13194,7 +13194,7 @@
         <v>833</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2440</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -13205,7 +13205,7 @@
         <v>835</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2441</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -13216,7 +13216,7 @@
         <v>837</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2442</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -13227,7 +13227,7 @@
         <v>839</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2443</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13238,7 +13238,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -13249,7 +13249,7 @@
         <v>843</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2444</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -13260,7 +13260,7 @@
         <v>845</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -13271,7 +13271,7 @@
         <v>847</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -13282,7 +13282,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2546</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -13293,7 +13293,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2547</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13304,7 +13304,7 @@
         <v>853</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>2316</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -13315,7 +13315,7 @@
         <v>855</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>2446</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -13326,7 +13326,7 @@
         <v>857</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>2317</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -13353,7 +13353,7 @@
         <v>863</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2509</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -13364,7 +13364,7 @@
         <v>865</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>2503</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -13375,7 +13375,7 @@
         <v>867</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>2504</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -13410,7 +13410,7 @@
         <v>875</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2505</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -13421,7 +13421,7 @@
         <v>877</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>2507</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -13432,7 +13432,7 @@
         <v>879</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>2506</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13443,7 +13443,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -13454,7 +13454,7 @@
         <v>883</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2318</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13465,7 +13465,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -13492,7 +13492,7 @@
         <v>891</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>2319</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -13519,7 +13519,7 @@
         <v>897</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2510</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -13538,7 +13538,7 @@
         <v>901</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>2448</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -13565,7 +13565,7 @@
         <v>907</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>2447</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -13576,7 +13576,7 @@
         <v>909</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13587,7 +13587,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -13598,7 +13598,7 @@
         <v>913</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>2508</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -13649,7 +13649,7 @@
         <v>925</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>2320</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -13660,7 +13660,7 @@
         <v>927</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>2534</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -13719,7 +13719,7 @@
         <v>941</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2535</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -13746,7 +13746,7 @@
         <v>947</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>2080</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -13757,7 +13757,7 @@
         <v>949</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>2321</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -13784,7 +13784,7 @@
         <v>955</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>2322</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -13795,7 +13795,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2548</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -13806,7 +13806,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2549</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -13833,7 +13833,7 @@
         <v>965</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2449</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -13844,7 +13844,7 @@
         <v>967</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>2450</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -13871,7 +13871,7 @@
         <v>973</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>2323</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -13882,7 +13882,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2536</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -13893,7 +13893,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2554</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
         <v>983</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>2451</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -13947,7 +13947,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2550</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -13958,7 +13958,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2551</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -13969,7 +13969,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2552</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -13980,7 +13980,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2553</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -13991,7 +13991,7 @@
         <v>997</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2537</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -14002,7 +14002,7 @@
         <v>999</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2538</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14013,7 +14013,7 @@
         <v>1001</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14024,7 +14024,7 @@
         <v>1003</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14035,7 +14035,7 @@
         <v>1005</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -14046,7 +14046,7 @@
         <v>1007</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2539</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -14057,7 +14057,7 @@
         <v>1009</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -14068,7 +14068,7 @@
         <v>1011</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>2324</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -14079,7 +14079,7 @@
         <v>1013</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>2325</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -14090,7 +14090,7 @@
         <v>1015</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>2326</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -14101,7 +14101,7 @@
         <v>1017</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -14147,7 +14147,7 @@
         <v>1027</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -14174,7 +14174,7 @@
         <v>1033</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>2452</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -14185,7 +14185,7 @@
         <v>1035</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2453</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -14218,7 +14218,7 @@
         <v>1041</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2454</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -14229,7 +14229,7 @@
         <v>1043</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2455</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -14240,7 +14240,7 @@
         <v>1045</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2456</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -14251,7 +14251,7 @@
         <v>1047</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>2457</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -14294,7 +14294,7 @@
         <v>1057</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2458</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -14305,7 +14305,7 @@
         <v>1059</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2459</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -14316,7 +14316,7 @@
         <v>1061</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2460</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -14327,7 +14327,7 @@
         <v>1063</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -14338,7 +14338,7 @@
         <v>1065</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2462</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -14349,7 +14349,7 @@
         <v>1067</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>2463</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -14360,7 +14360,7 @@
         <v>1069</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>2464</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -14371,7 +14371,7 @@
         <v>1071</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2465</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -14382,7 +14382,7 @@
         <v>1073</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2466</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -14393,7 +14393,7 @@
         <v>1075</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2467</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -14404,7 +14404,7 @@
         <v>1077</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2468</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -14415,7 +14415,7 @@
         <v>1079</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2469</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -14426,7 +14426,7 @@
         <v>1081</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2474</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -14437,7 +14437,7 @@
         <v>1083</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2473</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14448,7 +14448,7 @@
         <v>1085</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -14459,7 +14459,7 @@
         <v>1087</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>2470</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -14470,7 +14470,7 @@
         <v>1089</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2471</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -14481,7 +14481,7 @@
         <v>1091</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>2472</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -14492,7 +14492,7 @@
         <v>1093</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>2328</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -14583,7 +14583,7 @@
         <v>1115</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2541</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -14594,7 +14594,7 @@
         <v>1117</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2540</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -14605,7 +14605,7 @@
         <v>1119</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2542</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -14616,7 +14616,7 @@
         <v>1121</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2543</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -14851,7 +14851,7 @@
         <v>1179</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -14910,7 +14910,7 @@
         <v>1193</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2587</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -14921,7 +14921,7 @@
         <v>1195</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2588</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -14932,7 +14932,7 @@
         <v>1197</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2511</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -14951,7 +14951,7 @@
         <v>1201</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2589</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -15018,7 +15018,7 @@
         <v>1217</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>2329</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -15165,7 +15165,7 @@
         <v>1253</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2590</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -15248,7 +15248,7 @@
         <v>1273</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2544</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -15283,7 +15283,7 @@
         <v>1281</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>2330</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -15406,7 +15406,7 @@
         <v>1310</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>2331</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -15417,7 +15417,7 @@
         <v>1312</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>2332</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -15428,7 +15428,7 @@
         <v>1314</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>2333</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -15439,7 +15439,7 @@
         <v>1316</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>2334</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -15450,7 +15450,7 @@
         <v>1318</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -15477,7 +15477,7 @@
         <v>1324</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>2335</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
@@ -15552,7 +15552,7 @@
         <v>1342</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>2336</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -15603,7 +15603,7 @@
         <v>1354</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2337</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -15614,7 +15614,7 @@
         <v>1356</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>2338</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -15625,7 +15625,7 @@
         <v>1358</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>2339</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -15764,7 +15764,7 @@
         <v>1392</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>2094</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
@@ -15775,7 +15775,7 @@
         <v>1394</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>2095</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -15786,7 +15786,7 @@
         <v>1396</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -15797,7 +15797,7 @@
         <v>1398</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -15872,7 +15872,7 @@
         <v>1416</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2517</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -15883,7 +15883,7 @@
         <v>1418</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2518</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -15894,7 +15894,7 @@
         <v>1420</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2592</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -15905,7 +15905,7 @@
         <v>1422</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2593</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -15916,7 +15916,7 @@
         <v>1424</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2594</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -15927,7 +15927,7 @@
         <v>1426</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2519</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -15938,7 +15938,7 @@
         <v>1428</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2595</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -15949,7 +15949,7 @@
         <v>1430</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2596</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -15960,7 +15960,7 @@
         <v>1432</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>2597</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -15971,7 +15971,7 @@
         <v>1434</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -15982,7 +15982,7 @@
         <v>1436</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>2599</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -15993,7 +15993,7 @@
         <v>1438</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2600</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -16004,7 +16004,7 @@
         <v>1440</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2601</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -16015,7 +16015,7 @@
         <v>1442</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2602</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -16026,7 +16026,7 @@
         <v>1444</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>2603</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -16037,7 +16037,7 @@
         <v>1446</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>2520</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -16048,7 +16048,7 @@
         <v>1448</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2604</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -16059,7 +16059,7 @@
         <v>1450</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2605</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -16070,7 +16070,7 @@
         <v>1452</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2606</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -16081,7 +16081,7 @@
         <v>1454</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2521</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -16092,7 +16092,7 @@
         <v>1456</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2607</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -16255,7 +16255,7 @@
         <v>1496</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2608</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -16298,7 +16298,7 @@
         <v>1506</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>2340</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
@@ -16309,7 +16309,7 @@
         <v>1508</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>2341</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
@@ -16328,7 +16328,7 @@
         <v>1512</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>2342</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
@@ -16339,7 +16339,7 @@
         <v>1514</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>2343</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
@@ -16486,7 +16486,7 @@
         <v>1550</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>2609</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -16497,7 +16497,7 @@
         <v>1552</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>2612</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -16508,7 +16508,7 @@
         <v>1554</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>2610</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
@@ -16559,7 +16559,7 @@
         <v>1566</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2611</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -16581,7 +16581,7 @@
         <v>1570</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>2082</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
@@ -16592,7 +16592,7 @@
         <v>1572</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>2344</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
@@ -16603,7 +16603,7 @@
         <v>1574</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>2345</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -16614,7 +16614,7 @@
         <v>1576</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>2346</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
@@ -16673,7 +16673,7 @@
         <v>1590</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>2083</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
@@ -16684,7 +16684,7 @@
         <v>1592</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>2512</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
         <v>1602</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>2347</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
@@ -16738,7 +16738,7 @@
         <v>1604</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>2668</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
@@ -16773,7 +16773,7 @@
         <v>1612</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2591</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -16784,7 +16784,7 @@
         <v>1614</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2613</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -16795,7 +16795,7 @@
         <v>1616</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2614</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -16806,7 +16806,7 @@
         <v>1618</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2615</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -16817,7 +16817,7 @@
         <v>1620</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2616</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
@@ -16828,7 +16828,7 @@
         <v>1622</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2617</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -16839,7 +16839,7 @@
         <v>1624</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2618</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
@@ -16850,7 +16850,7 @@
         <v>1626</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2619</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -16861,7 +16861,7 @@
         <v>1628</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2620</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -16872,7 +16872,7 @@
         <v>1630</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2622</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
@@ -16883,7 +16883,7 @@
         <v>1632</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>2621</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -16894,7 +16894,7 @@
         <v>1634</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
@@ -16905,7 +16905,7 @@
         <v>1636</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
@@ -16916,7 +16916,7 @@
         <v>1638</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -16975,7 +16975,7 @@
         <v>1652</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2513</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -17010,7 +17010,7 @@
         <v>1660</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>2348</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
@@ -17037,7 +17037,7 @@
         <v>1666</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2349</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
@@ -17096,7 +17096,7 @@
         <v>1680</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2350</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
@@ -17107,7 +17107,7 @@
         <v>1682</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2624</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -17118,7 +17118,7 @@
         <v>1684</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>2623</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -17129,7 +17129,7 @@
         <v>1686</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2625</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -17140,7 +17140,7 @@
         <v>1688</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2626</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -17151,7 +17151,7 @@
         <v>1690</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2627</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -17162,7 +17162,7 @@
         <v>1692</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>2628</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -17173,7 +17173,7 @@
         <v>1694</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2629</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -17184,7 +17184,7 @@
         <v>1696</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2630</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -17195,7 +17195,7 @@
         <v>1698</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2631</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -17206,7 +17206,7 @@
         <v>1700</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2632</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
@@ -17217,7 +17217,7 @@
         <v>1702</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2633</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -17228,7 +17228,7 @@
         <v>1704</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2634</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -17239,7 +17239,7 @@
         <v>1706</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2635</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -17250,7 +17250,7 @@
         <v>1708</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2636</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -17261,7 +17261,7 @@
         <v>1710</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2637</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -17272,7 +17272,7 @@
         <v>1712</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2638</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -17283,7 +17283,7 @@
         <v>1714</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2639</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -17294,7 +17294,7 @@
         <v>1716</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -17305,7 +17305,7 @@
         <v>1718</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
@@ -17359,7 +17359,7 @@
         <v>1730</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -17370,7 +17370,7 @@
         <v>1732</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2642</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -17381,7 +17381,7 @@
         <v>1734</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -17392,7 +17392,7 @@
         <v>1736</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2644</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -17403,7 +17403,7 @@
         <v>1738</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -17414,7 +17414,7 @@
         <v>1740</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2646</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -17425,7 +17425,7 @@
         <v>1742</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2647</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -17436,7 +17436,7 @@
         <v>1744</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2648</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
         <v>1746</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2649</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
@@ -17458,7 +17458,7 @@
         <v>1748</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>2650</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -17469,7 +17469,7 @@
         <v>1750</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2651</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
@@ -17480,7 +17480,7 @@
         <v>1752</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2652</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -17491,7 +17491,7 @@
         <v>1754</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2653</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
@@ -17502,7 +17502,7 @@
         <v>1756</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>2654</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -17513,7 +17513,7 @@
         <v>1758</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2655</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
@@ -17524,7 +17524,7 @@
         <v>1760</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -17543,7 +17543,7 @@
         <v>1764</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2568</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
@@ -17554,7 +17554,7 @@
         <v>1766</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2570</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -17565,7 +17565,7 @@
         <v>1768</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2571</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -17576,7 +17576,7 @@
         <v>1770</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2572</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
         <v>1782</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2573</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -17638,7 +17638,7 @@
         <v>1784</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2574</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
@@ -17665,7 +17665,7 @@
         <v>1790</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2575</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -17676,7 +17676,7 @@
         <v>1792</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2576</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -17695,7 +17695,7 @@
         <v>1796</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2577</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -17706,7 +17706,7 @@
         <v>1798</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2583</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
         <v>1800</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2578</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -17728,7 +17728,7 @@
         <v>1802</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2579</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -17739,7 +17739,7 @@
         <v>1804</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2580</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -17750,7 +17750,7 @@
         <v>1806</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -17761,7 +17761,7 @@
         <v>1808</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2582</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -17772,7 +17772,7 @@
         <v>1810</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2351</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
@@ -17783,7 +17783,7 @@
         <v>1812</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2352</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
@@ -17794,7 +17794,7 @@
         <v>1814</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2353</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
@@ -17805,7 +17805,7 @@
         <v>1816</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2354</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
@@ -17816,7 +17816,7 @@
         <v>1818</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2355</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
@@ -17867,7 +17867,7 @@
         <v>1829</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -17886,7 +17886,7 @@
         <v>1833</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2356</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
@@ -17905,7 +17905,7 @@
         <v>1837</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2357</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
@@ -17956,7 +17956,7 @@
         <v>1848</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2565</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -17967,7 +17967,7 @@
         <v>1850</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
@@ -17978,7 +17978,7 @@
         <v>1852</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2557</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -17989,7 +17989,7 @@
         <v>1854</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2558</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -18000,7 +18000,7 @@
         <v>1856</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2559</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -18011,7 +18011,7 @@
         <v>1858</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2560</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -18022,7 +18022,7 @@
         <v>1860</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2561</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -18033,7 +18033,7 @@
         <v>1862</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2562</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
@@ -18044,7 +18044,7 @@
         <v>1864</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2556</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -18055,7 +18055,7 @@
         <v>1866</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2563</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
@@ -18066,7 +18066,7 @@
         <v>1868</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2564</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -18117,7 +18117,7 @@
         <v>1880</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2569</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -18128,7 +18128,7 @@
         <v>1882</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2584</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -18139,7 +18139,7 @@
         <v>1884</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -18150,7 +18150,7 @@
         <v>1886</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -18161,7 +18161,7 @@
         <v>1888</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -18380,7 +18380,7 @@
         <v>1942</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -18407,7 +18407,7 @@
         <v>1948</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>2659</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
@@ -18458,7 +18458,7 @@
         <v>1960</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>2660</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -18557,7 +18557,7 @@
         <v>1984</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2661</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -18568,7 +18568,7 @@
         <v>1986</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2662</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
@@ -18579,7 +18579,7 @@
         <v>1988</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2663</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -18590,7 +18590,7 @@
         <v>1990</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2567</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -18601,7 +18601,7 @@
         <v>1992</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>2494</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
@@ -18612,7 +18612,7 @@
         <v>1994</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2664</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
@@ -18623,7 +18623,7 @@
         <v>1996</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
@@ -18634,7 +18634,7 @@
         <v>1998</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2566</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -18645,7 +18645,7 @@
         <v>2000</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>2516</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
@@ -18656,7 +18656,7 @@
         <v>2002</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>2515</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
@@ -18667,7 +18667,7 @@
         <v>2004</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>2514</v>
+        <v>2496</v>
       </c>
     </row>
   </sheetData>

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="2921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="3010">
   <si>
     <t>CWE-1</t>
   </si>
@@ -7241,9 +7241,6 @@
     <t>Недостаточно надежное шифрование</t>
   </si>
   <si>
-    <t>Использование скомпромитированного или ненадежного криптографического алгоритма</t>
-  </si>
-  <si>
     <t>Использование непроизвольного вектора инициализации для режима сцепления блоков шифротекста</t>
   </si>
   <si>
@@ -8787,6 +8784,276 @@
   </si>
   <si>
     <t>Некорректная работа автоматизированного механизма распознавания при определении или обработке входных данных, модифицированных злоумышленником</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): подмена данных для переменной</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): подмена данных для команды</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): подмена данных для среды</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректная обработка входных данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректное преобразование входных данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): подмена входных данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): точки входа</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): неудачная реализация chroot jail</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): ссылка в разрешении имен ресурсов</t>
+  </si>
+  <si>
+    <t>Инициализация доверенных переменных или хранилищ данных извне</t>
+  </si>
+  <si>
+    <t>Продолжение работы после сбоя инициализации</t>
+  </si>
+  <si>
+    <t>Некорректная очистка при возникновении исключения</t>
+  </si>
+  <si>
+    <t>НЕ РЕКОМЕНДУЕТСЯ: Некорректная инициализация</t>
+  </si>
+  <si>
+    <t>Использование sizeof() для типа указателя</t>
+  </si>
+  <si>
+    <t>Создание недостаточно сложных хеш-сумм паролей</t>
+  </si>
+  <si>
+    <t>Некорректная нейтрализация специальных элементов, используемых в утверждениях языка выражений (Внедрение кода языка выражений)</t>
+  </si>
+  <si>
+    <t>Уязвимости в мобильных приложениях</t>
+  </si>
+  <si>
+    <t>Хранение важных данных без обеспечения контроля доступа</t>
+  </si>
+  <si>
+    <t>Сводная таблица CWE</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): управление исключениями</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): доступ к памяти</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): управление памятью</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): управление ресурсами</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (первичный кластер): разрешение пути</t>
+  </si>
+  <si>
+    <t>Некорректное управление динамически изменяемыми программными ресурсами</t>
+  </si>
+  <si>
+    <t>Некорректное управление динамически задаваемыми переменными</t>
+  </si>
+  <si>
+    <t>Некорректный контроль над изменением динамически определяемых атрибутов объектов</t>
+  </si>
+  <si>
+    <t>Ошибки в бизнес-логике</t>
+  </si>
+  <si>
+    <t>Некорректный контроль за последовательностью выполняемых действий</t>
+  </si>
+  <si>
+    <t>Некорректное включение пользователя в группу</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректная аутентификация конечной точки</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): жестко закодированные критичные данные</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): небезопасная политика аутентификации</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): отсутствует аутентификация</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): отсутствует аутентификация конечной точки</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): множественные привязки к одному порту</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): аутентификация без ограничений</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): атака по каналам</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): ошибки в протоколе</t>
+  </si>
+  <si>
+    <t>Использование скомпрометированного или ненадежного криптографического алгоритма</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): скомпрометированный криптографический алгоритм</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): ненадежный криптографический алгоритм</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): неоднозначный тип исключения</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректные действия при исключениях</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): отсутствует проверка состояния</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): разглашение данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): разглашение данных, связанное с временными файлами</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): небезопасное управление сессиями</t>
+  </si>
+  <si>
+    <t>Раскрытие (доступность) данных другим сессиям</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): возможные способы разглашения данных</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): разглашение данных о состоянии</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): скрытый канал</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректное освобождение памяти</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректный доступ к буферу</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректное использование указателей</t>
+  </si>
+  <si>
+    <t>Модели программных сбоев (вторичный кластер): некорректное распространение строк</t>
+  </si>
+  <si>
+    <t>Использование внутреннего класса, содержащего критичные данные</t>
+  </si>
+  <si>
+    <t>Ошибка в конфигурации J2EE: незашифрованный пароль в файле конфигурации</t>
+  </si>
+  <si>
+    <t>Непредусмотренный доступ к файлам или каталогам</t>
+  </si>
+  <si>
+    <t>Ошибка в конфигурации ASP.NET: не используется фреймворк проверки входных данных</t>
+  </si>
+  <si>
+    <t>Ошибка в конфигурации ASP.NET: использование олицетворения учетных данных</t>
+  </si>
+  <si>
+    <t>Критичная общедоступная переменная без модификатора final</t>
+  </si>
+  <si>
+    <t>Некорректный порядок действий: авторизация до обработки и нормализации</t>
+  </si>
+  <si>
+    <t>Командная оболочка в каталоге, доступном извне</t>
+  </si>
+  <si>
+    <t>НЕ РЕКОМЕНДУЕТСЯ: Использование динамической загрузки классов</t>
+  </si>
+  <si>
+    <t>Использование куки-файлов без подтверждения и проверки целостности</t>
+  </si>
+  <si>
+    <t>Несинхронизированный доступ к общим данным в многопоточном контексте</t>
+  </si>
+  <si>
+    <t>Обход авторизации, используя первичный ключ SQL, контролируемый пользователем</t>
+  </si>
+  <si>
+    <t>Некорректное выполнение вызывающим требований спецификации</t>
+  </si>
+  <si>
+    <t>Объявление public, final и static для массива</t>
+  </si>
+  <si>
+    <t>Return внутри блока finally</t>
+  </si>
+  <si>
+    <t>Нарушение объектной модели: неодинаковые хеш-коды для одинаковых объектов</t>
+  </si>
+  <si>
+    <t>Попытка доступа к дочернему элементу неструктирированного указателя</t>
+  </si>
+  <si>
+    <t>Используемый API не является универсальным</t>
+  </si>
+  <si>
+    <t>Освобождение не выделенной динамической памяти</t>
+  </si>
+  <si>
+    <t>Некорректное масштабирование указателей</t>
+  </si>
+  <si>
+    <t>Вычитание указателей для определения размера</t>
+  </si>
+  <si>
+    <t>Возможность изменения извне предположительно неизменяемых веб-параметров</t>
+  </si>
+  <si>
+    <t>Некорректное сравнение</t>
+  </si>
+  <si>
+    <t>Выполнение после перенаправления</t>
+  </si>
+  <si>
+    <t>Изменение предположительно неизменяемых данных</t>
+  </si>
+  <si>
+    <t>Некорректная проверка или обработка исключительных ситуаций</t>
+  </si>
+  <si>
+    <t>Некорректное преобразование или приведение типов</t>
+  </si>
+  <si>
+    <t>Некорректный ход выполнения команд</t>
+  </si>
+  <si>
+    <t>Некорректное разрешение имени или ссылки</t>
+  </si>
+  <si>
+    <t>Некорректное выполнение требований к структуре сообщений или данных</t>
+  </si>
+  <si>
+    <t>Некорректное назначение владельца</t>
+  </si>
+  <si>
+    <t>Именованные цепочки</t>
+  </si>
+  <si>
+    <t>Одинаковый идентификатор для нескольких ресурсов</t>
+  </si>
+  <si>
+    <t>Использование низкоуровневой функциональности</t>
   </si>
 </sst>
 </file>
@@ -9323,14 +9590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1040" sqref="A1040"/>
+    <sheetView tabSelected="1" topLeftCell="A750" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -9585,7 +9852,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -9596,7 +9863,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -9607,7 +9874,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -9618,7 +9885,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -9629,7 +9896,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -9640,7 +9907,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -9651,7 +9918,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -9662,7 +9929,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -9673,7 +9940,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -9684,7 +9951,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -9695,7 +9962,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -9706,7 +9973,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -9717,7 +9984,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -9728,7 +9995,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,7 +10006,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,7 +10017,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,7 +10028,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,7 +10039,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,7 +10050,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -10355,7 +10622,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -10795,7 +11062,7 @@
         <v>260</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -10872,7 +11139,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -11730,7 +11997,7 @@
         <v>430</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11741,7 +12008,7 @@
         <v>432</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -11818,7 +12085,7 @@
         <v>446</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -12060,7 +12327,7 @@
         <v>490</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -12082,7 +12349,7 @@
         <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -12401,7 +12668,7 @@
         <v>552</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -12412,7 +12679,7 @@
         <v>554</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -12423,7 +12690,7 @@
         <v>556</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -12434,7 +12701,7 @@
         <v>558</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -12445,7 +12712,7 @@
         <v>560</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -12456,7 +12723,7 @@
         <v>562</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -12555,7 +12822,7 @@
         <v>580</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -12709,7 +12976,7 @@
         <v>608</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -12940,7 +13207,7 @@
         <v>650</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2405</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -12962,7 +13229,7 @@
         <v>654</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -13006,7 +13273,7 @@
         <v>662</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -13094,7 +13361,7 @@
         <v>678</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -13105,7 +13372,7 @@
         <v>680</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -13116,7 +13383,7 @@
         <v>682</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -13127,7 +13394,7 @@
         <v>684</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -13138,7 +13405,7 @@
         <v>686</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -13171,7 +13438,7 @@
         <v>692</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -13182,7 +13449,7 @@
         <v>694</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -13193,7 +13460,7 @@
         <v>696</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -13204,7 +13471,7 @@
         <v>698</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -13259,7 +13526,7 @@
         <v>708</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -13270,7 +13537,7 @@
         <v>710</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -13281,7 +13548,7 @@
         <v>712</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -13303,7 +13570,7 @@
         <v>716</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -13424,7 +13691,7 @@
         <v>737</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -13435,7 +13702,7 @@
         <v>739</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13446,7 +13713,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -13457,7 +13724,7 @@
         <v>743</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -13468,7 +13735,7 @@
         <v>745</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -13490,7 +13757,7 @@
         <v>749</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -13523,7 +13790,7 @@
         <v>755</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -13556,7 +13823,7 @@
         <v>761</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -13578,7 +13845,7 @@
         <v>765</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -13589,7 +13856,7 @@
         <v>767</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -13600,7 +13867,7 @@
         <v>769</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -13611,7 +13878,7 @@
         <v>771</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -13622,7 +13889,7 @@
         <v>773</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -13633,7 +13900,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -13644,7 +13911,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -13655,7 +13922,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -13666,7 +13933,7 @@
         <v>781</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -13677,7 +13944,7 @@
         <v>783</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -13699,7 +13966,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -13710,7 +13977,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -13721,7 +13988,7 @@
         <v>791</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -13776,7 +14043,7 @@
         <v>801</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -13787,7 +14054,7 @@
         <v>803</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -13798,7 +14065,7 @@
         <v>805</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -13809,7 +14076,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -13820,7 +14087,7 @@
         <v>809</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -13831,7 +14098,7 @@
         <v>811</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -13842,7 +14109,7 @@
         <v>813</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -13853,7 +14120,7 @@
         <v>815</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -13875,7 +14142,7 @@
         <v>819</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -13930,7 +14197,7 @@
         <v>829</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -13941,7 +14208,7 @@
         <v>831</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -13952,7 +14219,7 @@
         <v>833</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -13963,7 +14230,7 @@
         <v>835</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -13974,7 +14241,7 @@
         <v>837</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -13985,7 +14252,7 @@
         <v>839</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13996,7 +14263,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -14007,7 +14274,7 @@
         <v>843</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -14018,7 +14285,7 @@
         <v>845</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -14040,7 +14307,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -14051,7 +14318,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -14073,7 +14340,7 @@
         <v>855</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -14095,7 +14362,7 @@
         <v>859</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -14106,7 +14373,7 @@
         <v>861</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -14117,7 +14384,7 @@
         <v>863</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -14128,7 +14395,7 @@
         <v>865</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -14139,7 +14406,7 @@
         <v>867</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -14150,7 +14417,7 @@
         <v>869</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -14161,7 +14428,7 @@
         <v>871</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -14172,7 +14439,7 @@
         <v>873</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -14183,7 +14450,7 @@
         <v>875</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -14194,7 +14461,7 @@
         <v>877</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -14205,7 +14472,7 @@
         <v>879</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14216,7 +14483,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -14238,7 +14505,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -14249,7 +14516,7 @@
         <v>887</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -14260,7 +14527,7 @@
         <v>889</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -14282,7 +14549,7 @@
         <v>893</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -14293,7 +14560,7 @@
         <v>895</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -14304,7 +14571,7 @@
         <v>897</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -14315,7 +14582,7 @@
         <v>899</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -14326,23 +14593,29 @@
         <v>901</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="3" t="s">
         <v>902</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>903</v>
       </c>
+      <c r="C455" s="1" t="s">
+        <v>2929</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="3" t="s">
         <v>904</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>905</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2930</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -14353,7 +14626,7 @@
         <v>907</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -14375,7 +14648,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>2755</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -14386,15 +14659,18 @@
         <v>913</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="3" t="s">
         <v>914</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>915</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>2931</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -14405,7 +14681,7 @@
         <v>917</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -14416,7 +14692,7 @@
         <v>919</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -14427,7 +14703,7 @@
         <v>921</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -14438,7 +14714,7 @@
         <v>923</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -14460,31 +14736,40 @@
         <v>927</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="3" t="s">
         <v>928</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>929</v>
       </c>
+      <c r="C468" s="1" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="3" t="s">
         <v>930</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>931</v>
       </c>
+      <c r="C469" s="1" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="3" t="s">
         <v>932</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>933</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2996</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -14496,19 +14781,25 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="3" t="s">
         <v>936</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>937</v>
       </c>
+      <c r="C472" s="1" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="3" t="s">
         <v>938</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>939</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>2997</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -14519,7 +14810,7 @@
         <v>941</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -14595,7 +14886,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -14606,7 +14897,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -14633,7 +14924,7 @@
         <v>965</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -14644,7 +14935,7 @@
         <v>967</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -14656,11 +14947,14 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="3" t="s">
         <v>970</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>971</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>2968</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -14682,7 +14976,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -14693,23 +14987,29 @@
         <v>977</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="3" t="s">
         <v>978</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>979</v>
       </c>
+      <c r="C493" s="1" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="3" t="s">
         <v>980</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>981</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2981</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -14720,7 +15020,7 @@
         <v>983</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -14747,7 +15047,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -14758,7 +15058,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -14769,7 +15069,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -14780,7 +15080,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -14791,7 +15091,7 @@
         <v>997</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -14802,7 +15102,7 @@
         <v>999</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14813,7 +15113,7 @@
         <v>1001</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14824,7 +15124,7 @@
         <v>1003</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14835,7 +15135,7 @@
         <v>1005</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -14846,7 +15146,7 @@
         <v>1007</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -14923,7 +15223,7 @@
         <v>1021</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -14934,7 +15234,7 @@
         <v>1023</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -14945,7 +15245,7 @@
         <v>1025</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="517" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14956,7 +15256,7 @@
         <v>1027</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -14967,7 +15267,7 @@
         <v>1029</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -14978,7 +15278,7 @@
         <v>1031</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -14989,7 +15289,7 @@
         <v>1033</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -15000,7 +15300,7 @@
         <v>1035</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -15033,7 +15333,7 @@
         <v>1041</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -15044,7 +15344,7 @@
         <v>1043</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -15055,7 +15355,7 @@
         <v>1045</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -15066,7 +15366,7 @@
         <v>1047</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -15077,7 +15377,7 @@
         <v>1049</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -15088,7 +15388,7 @@
         <v>1051</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -15099,7 +15399,7 @@
         <v>1053</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -15110,7 +15410,7 @@
         <v>1055</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -15121,7 +15421,7 @@
         <v>1057</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -15132,7 +15432,7 @@
         <v>1059</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -15143,7 +15443,7 @@
         <v>1061</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -15154,7 +15454,7 @@
         <v>1063</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -15165,7 +15465,7 @@
         <v>1065</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -15176,7 +15476,7 @@
         <v>1067</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -15187,7 +15487,7 @@
         <v>1069</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -15198,7 +15498,7 @@
         <v>1071</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -15209,7 +15509,7 @@
         <v>1073</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -15220,7 +15520,7 @@
         <v>1075</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -15231,7 +15531,7 @@
         <v>1077</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -15242,7 +15542,7 @@
         <v>1079</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -15253,7 +15553,7 @@
         <v>1081</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -15264,7 +15564,7 @@
         <v>1083</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15275,7 +15575,7 @@
         <v>1085</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2755</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -15286,7 +15586,7 @@
         <v>1087</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -15297,7 +15597,7 @@
         <v>1089</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -15308,7 +15608,7 @@
         <v>1091</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -15330,55 +15630,73 @@
         <v>1095</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="C552" s="1" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="C553" s="1" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="3" t="s">
         <v>1100</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1101</v>
       </c>
+      <c r="C554" s="1" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="C555" s="1" t="s">
+        <v>2979</v>
+      </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C556" s="1" t="s">
+        <v>2977</v>
+      </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="3" t="s">
         <v>1106</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1107</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2980</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -15389,7 +15707,7 @@
         <v>1109</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -15400,7 +15718,7 @@
         <v>1111</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -15411,7 +15729,7 @@
         <v>1113</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -15422,7 +15740,7 @@
         <v>1115</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -15433,7 +15751,7 @@
         <v>1117</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -15444,7 +15762,7 @@
         <v>1119</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -15455,7 +15773,7 @@
         <v>1121</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -15466,31 +15784,40 @@
         <v>1123</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="3" t="s">
         <v>1124</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>1125</v>
       </c>
+      <c r="C566" s="1" t="s">
+        <v>2985</v>
+      </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="3" t="s">
         <v>1126</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>1127</v>
       </c>
+      <c r="C567" s="1" t="s">
+        <v>2987</v>
+      </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="3" t="s">
         <v>1128</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>1129</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>2986</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -15501,7 +15828,7 @@
         <v>1131</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -15512,7 +15839,7 @@
         <v>1133</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -15523,7 +15850,7 @@
         <v>1135</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -15534,7 +15861,7 @@
         <v>1137</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -15545,15 +15872,18 @@
         <v>1139</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>1141</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2988</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -15564,7 +15894,7 @@
         <v>1143</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -15575,7 +15905,7 @@
         <v>1145</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -15586,7 +15916,7 @@
         <v>1147</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -15597,7 +15927,7 @@
         <v>1149</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -15608,7 +15938,7 @@
         <v>1151</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -15619,7 +15949,7 @@
         <v>1153</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -15630,23 +15960,29 @@
         <v>1155</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="3" t="s">
         <v>1156</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>1157</v>
       </c>
+      <c r="C582" s="1" t="s">
+        <v>2991</v>
+      </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>1159</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>2989</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -15657,15 +15993,18 @@
         <v>1161</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="3" t="s">
         <v>1162</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>1163</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>2990</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -15676,7 +16015,7 @@
         <v>1165</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -15687,7 +16026,7 @@
         <v>1167</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -15698,31 +16037,40 @@
         <v>1169</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="3" t="s">
         <v>1170</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1171</v>
       </c>
+      <c r="C589" s="1" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="3" t="s">
         <v>1172</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>1173</v>
       </c>
+      <c r="C590" s="1" t="s">
+        <v>2993</v>
+      </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>1175</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>2994</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -15733,7 +16081,7 @@
         <v>1177</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="593" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15744,7 +16092,7 @@
         <v>1179</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -15755,7 +16103,7 @@
         <v>1181</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -15766,7 +16114,7 @@
         <v>1183</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -15777,7 +16125,7 @@
         <v>1185</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -15788,7 +16136,7 @@
         <v>1187</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -15799,7 +16147,7 @@
         <v>1189</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -15810,7 +16158,7 @@
         <v>1191</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -15821,7 +16169,7 @@
         <v>1193</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -15832,7 +16180,7 @@
         <v>1195</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -15843,7 +16191,7 @@
         <v>1197</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -15854,7 +16202,7 @@
         <v>1199</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -15865,7 +16213,7 @@
         <v>1201</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -15876,7 +16224,7 @@
         <v>1203</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -15887,7 +16235,7 @@
         <v>1205</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -15922,7 +16270,7 @@
         <v>1213</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -15960,7 +16308,7 @@
         <v>1221</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -15971,7 +16319,7 @@
         <v>1223</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -15982,7 +16330,7 @@
         <v>1225</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -16017,7 +16365,7 @@
         <v>1233</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -16028,7 +16376,7 @@
         <v>1235</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -16095,7 +16443,7 @@
         <v>1251</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -16106,7 +16454,7 @@
         <v>1253</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="631" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16114,10 +16462,10 @@
         <v>1254</v>
       </c>
       <c r="B631" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C631" s="2" t="s">
         <v>2694</v>
-      </c>
-      <c r="C631" s="2" t="s">
-        <v>2695</v>
       </c>
     </row>
     <row r="632" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16125,10 +16473,10 @@
         <v>1255</v>
       </c>
       <c r="B632" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C632" s="2" t="s">
         <v>2692</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>2693</v>
       </c>
     </row>
     <row r="633" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16136,10 +16484,10 @@
         <v>1256</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C633" s="2" t="s">
         <v>2685</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="634" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16147,10 +16495,10 @@
         <v>1257</v>
       </c>
       <c r="B634" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C634" s="2" t="s">
         <v>2687</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>2688</v>
       </c>
     </row>
     <row r="635" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16158,10 +16506,10 @@
         <v>1258</v>
       </c>
       <c r="B635" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C635" s="2" t="s">
         <v>2689</v>
-      </c>
-      <c r="C635" s="2" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -16172,7 +16520,7 @@
         <v>1260</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -16207,7 +16555,7 @@
         <v>1268</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -16285,7 +16633,7 @@
         <v>1286</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -16312,7 +16660,7 @@
         <v>1291</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -16323,7 +16671,7 @@
         <v>1293</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -16366,7 +16714,7 @@
         <v>1303</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -16440,7 +16788,7 @@
         <v>1317</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -16462,7 +16810,7 @@
         <v>1321</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -16473,7 +16821,7 @@
         <v>1323</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -16484,7 +16832,7 @@
         <v>1325</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -16511,7 +16859,7 @@
         <v>1331</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -16549,7 +16897,7 @@
         <v>1339</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -16560,7 +16908,7 @@
         <v>1341</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -16628,7 +16976,7 @@
         <v>1355</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -16639,7 +16987,7 @@
         <v>1357</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -16650,7 +16998,7 @@
         <v>1359</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -16661,7 +17009,7 @@
         <v>1361</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -16672,7 +17020,7 @@
         <v>1363</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -16683,7 +17031,7 @@
         <v>1365</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -16694,7 +17042,7 @@
         <v>1367</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -16705,7 +17053,7 @@
         <v>1369</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -16716,7 +17064,7 @@
         <v>1371</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -16727,7 +17075,7 @@
         <v>1373</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -16738,23 +17086,29 @@
         <v>1375</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="3" t="s">
         <v>1376</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1377</v>
       </c>
+      <c r="C695" s="1" t="s">
+        <v>3008</v>
+      </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1379</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>3009</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -16765,23 +17119,29 @@
         <v>1381</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="3" t="s">
         <v>1382</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1383</v>
       </c>
+      <c r="C698" s="1" t="s">
+        <v>2998</v>
+      </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>1385</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>2999</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
@@ -16829,59 +17189,80 @@
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="3" t="s">
         <v>1394</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>1395</v>
       </c>
+      <c r="C704" s="1" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>1397</v>
       </c>
+      <c r="C705" s="1" t="s">
+        <v>3002</v>
+      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>1399</v>
       </c>
+      <c r="C706" s="1" t="s">
+        <v>3003</v>
+      </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="3" t="s">
         <v>1400</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>1401</v>
       </c>
+      <c r="C707" s="1" t="s">
+        <v>3004</v>
+      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="3" t="s">
         <v>1402</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>1403</v>
       </c>
+      <c r="C708" s="1" t="s">
+        <v>3005</v>
+      </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="3" t="s">
         <v>1404</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>1405</v>
       </c>
+      <c r="C709" s="1" t="s">
+        <v>3006</v>
+      </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="3" t="s">
         <v>1406</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>1407</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>3007</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -16892,7 +17273,7 @@
         <v>1409</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -16903,7 +17284,7 @@
         <v>1411</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -16914,7 +17295,7 @@
         <v>1413</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -16925,7 +17306,7 @@
         <v>1415</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -16936,7 +17317,7 @@
         <v>1417</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -16947,7 +17328,7 @@
         <v>1419</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -16958,7 +17339,7 @@
         <v>1421</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -16969,7 +17350,7 @@
         <v>1423</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -16980,7 +17361,7 @@
         <v>1425</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -16991,7 +17372,7 @@
         <v>1427</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -17002,7 +17383,7 @@
         <v>1429</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -17013,7 +17394,7 @@
         <v>1431</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -17024,7 +17405,7 @@
         <v>1433</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -17035,7 +17416,7 @@
         <v>1435</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -17046,7 +17427,7 @@
         <v>1437</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -17057,7 +17438,7 @@
         <v>1439</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -17068,7 +17449,7 @@
         <v>1441</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -17079,7 +17460,7 @@
         <v>1443</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -17090,7 +17471,7 @@
         <v>1445</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -17101,7 +17482,7 @@
         <v>1447</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -17112,7 +17493,7 @@
         <v>1449</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -17123,7 +17504,7 @@
         <v>1451</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -17134,7 +17515,7 @@
         <v>1453</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -17145,7 +17526,7 @@
         <v>1455</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -17156,7 +17537,7 @@
         <v>1457</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -17167,7 +17548,7 @@
         <v>1459</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -17178,7 +17559,7 @@
         <v>1461</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -17189,7 +17570,7 @@
         <v>1463</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -17200,7 +17581,7 @@
         <v>1465</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -17211,7 +17592,7 @@
         <v>1467</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -17222,7 +17603,7 @@
         <v>1469</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
@@ -17233,7 +17614,7 @@
         <v>1471</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
@@ -17244,7 +17625,7 @@
         <v>1473</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
@@ -17255,7 +17636,7 @@
         <v>1475</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
@@ -17266,7 +17647,7 @@
         <v>1477</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
@@ -17277,7 +17658,7 @@
         <v>1479</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
@@ -17288,7 +17669,7 @@
         <v>1481</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
@@ -17299,7 +17680,7 @@
         <v>1483</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
@@ -17310,7 +17691,7 @@
         <v>1485</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
@@ -17321,7 +17702,7 @@
         <v>1487</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
@@ -17332,7 +17713,7 @@
         <v>1489</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
@@ -17343,7 +17724,7 @@
         <v>1491</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -17354,7 +17735,7 @@
         <v>1493</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
@@ -17365,7 +17746,7 @@
         <v>1495</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
@@ -17444,7 +17825,7 @@
         <v>1511</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
@@ -17455,7 +17836,7 @@
         <v>1513</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
@@ -17466,7 +17847,7 @@
         <v>1515</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
@@ -17477,7 +17858,7 @@
         <v>1517</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
@@ -17488,7 +17869,7 @@
         <v>1519</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
@@ -17499,7 +17880,7 @@
         <v>1521</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
@@ -17510,7 +17891,7 @@
         <v>1523</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
@@ -17529,7 +17910,7 @@
         <v>1527</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
@@ -17556,7 +17937,7 @@
         <v>1533</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
@@ -17599,7 +17980,7 @@
         <v>1543</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
@@ -17610,7 +17991,7 @@
         <v>1545</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -17621,7 +18002,7 @@
         <v>1547</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -17632,7 +18013,7 @@
         <v>1549</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
@@ -17683,7 +18064,7 @@
         <v>1561</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -17808,7 +18189,7 @@
         <v>1587</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
@@ -17819,7 +18200,7 @@
         <v>1589</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
@@ -17830,7 +18211,7 @@
         <v>1591</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
@@ -17841,7 +18222,7 @@
         <v>1593</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
@@ -17852,7 +18233,7 @@
         <v>1595</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
@@ -17874,7 +18255,7 @@
         <v>1599</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
@@ -17901,7 +18282,7 @@
         <v>1605</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
@@ -17912,7 +18293,7 @@
         <v>1607</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -17923,7 +18304,7 @@
         <v>1609</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -17934,7 +18315,7 @@
         <v>1611</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -17945,7 +18326,7 @@
         <v>1613</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -17956,7 +18337,7 @@
         <v>1615</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
@@ -17967,7 +18348,7 @@
         <v>1617</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -17978,7 +18359,7 @@
         <v>1619</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
@@ -17989,7 +18370,7 @@
         <v>1621</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -18000,7 +18381,7 @@
         <v>1623</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -18011,7 +18392,7 @@
         <v>1625</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
@@ -18022,7 +18403,7 @@
         <v>1627</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -18055,7 +18436,7 @@
         <v>1633</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -18066,7 +18447,7 @@
         <v>1635</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
@@ -18077,7 +18458,7 @@
         <v>1637</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
@@ -18120,7 +18501,7 @@
         <v>1647</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -18210,27 +18591,36 @@
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="3" t="s">
         <v>1668</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>1669</v>
       </c>
+      <c r="C841" s="1" t="s">
+        <v>2947</v>
+      </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="3" t="s">
         <v>1670</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>1671</v>
       </c>
+      <c r="C842" s="1" t="s">
+        <v>2948</v>
+      </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="3" t="s">
         <v>1672</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>1673</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>2949</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
@@ -18252,7 +18642,7 @@
         <v>1677</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -18263,7 +18653,7 @@
         <v>1679</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -18274,7 +18664,7 @@
         <v>1681</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -18285,7 +18675,7 @@
         <v>1683</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -18296,7 +18686,7 @@
         <v>1685</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -18307,7 +18697,7 @@
         <v>1687</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -18318,7 +18708,7 @@
         <v>1689</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -18329,7 +18719,7 @@
         <v>1691</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -18340,7 +18730,7 @@
         <v>1693</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -18351,7 +18741,7 @@
         <v>1695</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
@@ -18362,7 +18752,7 @@
         <v>1697</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -18373,7 +18763,7 @@
         <v>1699</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -18384,7 +18774,7 @@
         <v>1701</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -18395,7 +18785,7 @@
         <v>1703</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -18406,7 +18796,7 @@
         <v>1705</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -18417,7 +18807,7 @@
         <v>1707</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -18428,7 +18818,7 @@
         <v>1709</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -18439,7 +18829,7 @@
         <v>1711</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -18472,7 +18862,7 @@
         <v>1717</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -18483,7 +18873,7 @@
         <v>1719</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
@@ -18494,7 +18884,7 @@
         <v>1721</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
@@ -18505,7 +18895,7 @@
         <v>1723</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
@@ -18516,7 +18906,7 @@
         <v>1725</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -18527,7 +18917,7 @@
         <v>1727</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -18538,7 +18928,7 @@
         <v>1729</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -18549,7 +18939,7 @@
         <v>1731</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -18560,7 +18950,7 @@
         <v>1733</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -18571,7 +18961,7 @@
         <v>1735</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -18582,7 +18972,7 @@
         <v>1737</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -18593,7 +18983,7 @@
         <v>1739</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -18604,7 +18994,7 @@
         <v>1741</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
@@ -18615,7 +19005,7 @@
         <v>1743</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -18626,7 +19016,7 @@
         <v>1745</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
@@ -18637,7 +19027,7 @@
         <v>1747</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -18648,7 +19038,7 @@
         <v>1749</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
@@ -18659,7 +19049,7 @@
         <v>1751</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -18670,7 +19060,7 @@
         <v>1753</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
@@ -18681,15 +19071,18 @@
         <v>1755</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A885" s="1" t="s">
+      <c r="A885" s="3" t="s">
         <v>1756</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>1757</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>2938</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
@@ -18700,7 +19093,7 @@
         <v>1759</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
@@ -18711,7 +19104,7 @@
         <v>1761</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -18722,7 +19115,7 @@
         <v>1763</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -18733,47 +19126,62 @@
         <v>1765</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A890" s="1" t="s">
+      <c r="A890" s="3" t="s">
         <v>1766</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>1767</v>
       </c>
+      <c r="C890" s="1" t="s">
+        <v>2939</v>
+      </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A891" s="1" t="s">
+      <c r="A891" s="3" t="s">
         <v>1768</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>1769</v>
       </c>
+      <c r="C891" s="1" t="s">
+        <v>2940</v>
+      </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A892" s="1" t="s">
+      <c r="A892" s="3" t="s">
         <v>1770</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>1771</v>
       </c>
+      <c r="C892" s="1" t="s">
+        <v>2941</v>
+      </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A893" s="1" t="s">
+      <c r="A893" s="3" t="s">
         <v>1772</v>
       </c>
       <c r="B893" s="1" t="s">
         <v>1773</v>
       </c>
+      <c r="C893" s="1" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A894" s="1" t="s">
+      <c r="A894" s="3" t="s">
         <v>1774</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>1775</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>2943</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
@@ -18784,7 +19192,7 @@
         <v>1777</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -18795,23 +19203,29 @@
         <v>1779</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A897" s="1" t="s">
+      <c r="A897" s="3" t="s">
         <v>1780</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>1781</v>
       </c>
+      <c r="C897" s="1" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A898" s="1" t="s">
+      <c r="A898" s="3" t="s">
         <v>1782</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>1783</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>2926</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
@@ -18822,7 +19236,7 @@
         <v>1785</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -18833,7 +19247,7 @@
         <v>1787</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -18844,7 +19258,7 @@
         <v>1789</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
@@ -18855,7 +19269,7 @@
         <v>1791</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -18866,7 +19280,7 @@
         <v>1793</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -18877,7 +19291,7 @@
         <v>1795</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -18888,7 +19302,7 @@
         <v>1797</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -18899,7 +19313,7 @@
         <v>1799</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -18910,7 +19324,7 @@
         <v>1801</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -18921,7 +19335,7 @@
         <v>1803</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -18980,43 +19394,58 @@
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A914" s="1" t="s">
+      <c r="A914" s="3" t="s">
         <v>1814</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>1815</v>
       </c>
+      <c r="C914" s="1" t="s">
+        <v>2944</v>
+      </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A915" s="1" t="s">
+      <c r="A915" s="3" t="s">
         <v>1816</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>1817</v>
       </c>
+      <c r="C915" s="1" t="s">
+        <v>2945</v>
+      </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A916" s="1" t="s">
+      <c r="A916" s="3" t="s">
         <v>1818</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>1819</v>
       </c>
+      <c r="C916" s="1" t="s">
+        <v>2946</v>
+      </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A917" s="1" t="s">
+      <c r="A917" s="3" t="s">
         <v>1820</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>1821</v>
       </c>
+      <c r="C917" s="1" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A918" s="1" t="s">
+      <c r="A918" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>2005</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -19031,11 +19460,14 @@
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A920" s="1" t="s">
+      <c r="A920" s="3" t="s">
         <v>1825</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>1826</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>2936</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
@@ -19050,11 +19482,14 @@
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A922" s="1" t="s">
+      <c r="A922" s="3" t="s">
         <v>1829</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>1830</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>2937</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
@@ -19116,7 +19551,7 @@
         <v>1843</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -19127,7 +19562,7 @@
         <v>1845</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
@@ -19138,7 +19573,7 @@
         <v>1847</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -19149,7 +19584,7 @@
         <v>1849</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -19160,7 +19595,7 @@
         <v>1851</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -19171,7 +19606,7 @@
         <v>1853</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -19182,7 +19617,7 @@
         <v>1855</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -19193,7 +19628,7 @@
         <v>1857</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
@@ -19204,7 +19639,7 @@
         <v>1859</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -19215,7 +19650,7 @@
         <v>1861</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
@@ -19226,7 +19661,7 @@
         <v>1863</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -19277,7 +19712,7 @@
         <v>1875</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -19288,7 +19723,7 @@
         <v>1877</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -19299,7 +19734,7 @@
         <v>1879</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -19310,7 +19745,7 @@
         <v>1881</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -19321,199 +19756,271 @@
         <v>1883</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A950" s="1" t="s">
+      <c r="A950" s="3" t="s">
         <v>1884</v>
       </c>
       <c r="B950" s="1" t="s">
         <v>1885</v>
       </c>
+      <c r="C950" s="1" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A951" s="1" t="s">
+      <c r="A951" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="B951" s="1" t="s">
         <v>1887</v>
       </c>
+      <c r="C951" s="1" t="s">
+        <v>2951</v>
+      </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A952" s="1" t="s">
+      <c r="A952" s="3" t="s">
         <v>1888</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>1889</v>
       </c>
+      <c r="C952" s="1" t="s">
+        <v>2952</v>
+      </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A953" s="1" t="s">
+      <c r="A953" s="3" t="s">
         <v>1890</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>1891</v>
       </c>
+      <c r="C953" s="1" t="s">
+        <v>2953</v>
+      </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A954" s="1" t="s">
+      <c r="A954" s="3" t="s">
         <v>1892</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>1893</v>
       </c>
+      <c r="C954" s="1" t="s">
+        <v>2954</v>
+      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A955" s="1" t="s">
+      <c r="A955" s="3" t="s">
         <v>1894</v>
       </c>
       <c r="B955" s="1" t="s">
         <v>1895</v>
       </c>
+      <c r="C955" s="1" t="s">
+        <v>2955</v>
+      </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A956" s="1" t="s">
+      <c r="A956" s="3" t="s">
         <v>1896</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>1897</v>
       </c>
+      <c r="C956" s="1" t="s">
+        <v>2956</v>
+      </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A957" s="1" t="s">
+      <c r="A957" s="3" t="s">
         <v>1898</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>1899</v>
       </c>
+      <c r="C957" s="1" t="s">
+        <v>2957</v>
+      </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A958" s="1" t="s">
+      <c r="A958" s="3" t="s">
         <v>1900</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>1901</v>
       </c>
+      <c r="C958" s="1" t="s">
+        <v>2958</v>
+      </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A959" s="1" t="s">
+      <c r="A959" s="3" t="s">
         <v>1902</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>1903</v>
       </c>
+      <c r="C959" s="1" t="s">
+        <v>2960</v>
+      </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A960" s="1" t="s">
+      <c r="A960" s="3" t="s">
         <v>1904</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>1905</v>
       </c>
+      <c r="C960" s="1" t="s">
+        <v>2961</v>
+      </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A961" s="1" t="s">
+      <c r="A961" s="3" t="s">
         <v>1906</v>
       </c>
       <c r="B961" s="1" t="s">
         <v>1907</v>
       </c>
+      <c r="C961" s="1" t="s">
+        <v>2962</v>
+      </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A962" s="1" t="s">
+      <c r="A962" s="3" t="s">
         <v>1908</v>
       </c>
       <c r="B962" s="1" t="s">
         <v>1909</v>
       </c>
+      <c r="C962" s="1" t="s">
+        <v>2963</v>
+      </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A963" s="1" t="s">
+      <c r="A963" s="3" t="s">
         <v>1910</v>
       </c>
       <c r="B963" s="1" t="s">
         <v>1911</v>
       </c>
+      <c r="C963" s="1" t="s">
+        <v>2964</v>
+      </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A964" s="1" t="s">
+      <c r="A964" s="3" t="s">
         <v>1912</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>1913</v>
       </c>
+      <c r="C964" s="1" t="s">
+        <v>2965</v>
+      </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A965" s="1" t="s">
+      <c r="A965" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>1915</v>
       </c>
+      <c r="C965" s="1" t="s">
+        <v>2966</v>
+      </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A966" s="1" t="s">
+      <c r="A966" s="3" t="s">
         <v>1916</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>1917</v>
       </c>
+      <c r="C966" s="1" t="s">
+        <v>2967</v>
+      </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A967" s="1" t="s">
+      <c r="A967" s="3" t="s">
         <v>1918</v>
       </c>
       <c r="B967" s="1" t="s">
         <v>1919</v>
       </c>
+      <c r="C967" s="1" t="s">
+        <v>2969</v>
+      </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A968" s="1" t="s">
+      <c r="A968" s="3" t="s">
         <v>1920</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>1921</v>
       </c>
+      <c r="C968" s="1" t="s">
+        <v>2970</v>
+      </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A969" s="1" t="s">
+      <c r="A969" s="3" t="s">
         <v>1922</v>
       </c>
       <c r="B969" s="1" t="s">
         <v>1923</v>
       </c>
+      <c r="C969" s="1" t="s">
+        <v>2971</v>
+      </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A970" s="1" t="s">
+      <c r="A970" s="3" t="s">
         <v>1924</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>1925</v>
       </c>
+      <c r="C970" s="1" t="s">
+        <v>2972</v>
+      </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A971" s="1" t="s">
+      <c r="A971" s="3" t="s">
         <v>1926</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>1927</v>
       </c>
+      <c r="C971" s="1" t="s">
+        <v>2973</v>
+      </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A972" s="1" t="s">
+      <c r="A972" s="3" t="s">
         <v>1928</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>1929</v>
       </c>
+      <c r="C972" s="1" t="s">
+        <v>2974</v>
+      </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A973" s="1" t="s">
+      <c r="A973" s="3" t="s">
         <v>1930</v>
       </c>
       <c r="B973" s="1" t="s">
         <v>1931</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>2975</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
@@ -19524,7 +20031,7 @@
         <v>1933</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
@@ -19535,7 +20042,7 @@
         <v>1935</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
@@ -19546,7 +20053,7 @@
         <v>1937</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -19557,7 +20064,7 @@
         <v>1939</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
@@ -19568,7 +20075,7 @@
         <v>1941</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
@@ -19579,23 +20086,29 @@
         <v>1943</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A980" s="1" t="s">
+      <c r="A980" s="3" t="s">
         <v>1944</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>1945</v>
       </c>
+      <c r="C980" s="1" t="s">
+        <v>2927</v>
+      </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A981" s="1" t="s">
+      <c r="A981" s="3" t="s">
         <v>1946</v>
       </c>
       <c r="B981" s="1" t="s">
         <v>1947</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>2928</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
@@ -19606,7 +20119,7 @@
         <v>1949</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
@@ -19617,7 +20130,7 @@
         <v>1951</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
@@ -19628,7 +20141,7 @@
         <v>1953</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
@@ -19639,7 +20152,7 @@
         <v>1955</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -19650,7 +20163,7 @@
         <v>1957</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
@@ -19661,7 +20174,7 @@
         <v>1959</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
@@ -19672,7 +20185,7 @@
         <v>1961</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
@@ -19683,7 +20196,7 @@
         <v>1963</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
@@ -19694,47 +20207,62 @@
         <v>1965</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A991" s="1" t="s">
+      <c r="A991" s="3" t="s">
         <v>1966</v>
       </c>
       <c r="B991" s="1" t="s">
         <v>1967</v>
       </c>
+      <c r="C991" s="1" t="s">
+        <v>2921</v>
+      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A992" s="1" t="s">
+      <c r="A992" s="3" t="s">
         <v>1968</v>
       </c>
       <c r="B992" s="1" t="s">
         <v>1969</v>
       </c>
+      <c r="C992" s="1" t="s">
+        <v>2922</v>
+      </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A993" s="1" t="s">
+      <c r="A993" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="B993" s="1" t="s">
         <v>1971</v>
       </c>
+      <c r="C993" s="1" t="s">
+        <v>2924</v>
+      </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A994" s="1" t="s">
+      <c r="A994" s="3" t="s">
         <v>1972</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>1973</v>
       </c>
+      <c r="C994" s="1" t="s">
+        <v>2923</v>
+      </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A995" s="1" t="s">
+      <c r="A995" s="3" t="s">
         <v>1974</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>1975</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>2920</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
@@ -19745,7 +20273,7 @@
         <v>1977</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
@@ -19756,7 +20284,7 @@
         <v>1979</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -19767,7 +20295,7 @@
         <v>1981</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
@@ -19778,7 +20306,7 @@
         <v>1983</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -19789,7 +20317,7 @@
         <v>1985</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -19800,7 +20328,7 @@
         <v>1987</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
@@ -19811,7 +20339,7 @@
         <v>1989</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
@@ -19822,7 +20350,7 @@
         <v>1991</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
@@ -19833,7 +20361,7 @@
         <v>1993</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -19844,7 +20372,7 @@
         <v>1995</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
@@ -19855,381 +20383,381 @@
         <v>1997</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="C1007" s="7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C1008" s="7" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="3" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C1009" s="7" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="3" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="C1010" s="7" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="C1011" s="7" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="3" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C1012" s="7" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1013" s="7" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C1015" s="7" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="3" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="3" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C1022" s="7" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="3" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="3" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="3" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1027" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="3" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="3" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C1034" s="7" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C1038" s="7" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B1039" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C1039" s="7" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C1040" s="7" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
@@ -20240,7 +20768,7 @@
         <v>1999</v>
       </c>
       <c r="C1041" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
   </sheetData>

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="3036">
   <si>
     <t>CWE-1</t>
   </si>
@@ -7586,9 +7586,6 @@
     <t>Назначение неиспользуемой переменной</t>
   </si>
   <si>
-    <t>Обход авторизации</t>
-  </si>
-  <si>
     <t>Неконтролируемый элемент пути поиска</t>
   </si>
   <si>
@@ -9054,6 +9051,87 @@
   </si>
   <si>
     <t>Использование низкоуровневой функциональности</t>
+  </si>
+  <si>
+    <t>Некорректная проверка наличия нестандартных условий или исключений</t>
+  </si>
+  <si>
+    <t>Некорректная обработка исключений</t>
+  </si>
+  <si>
+    <t>Отсутствие ссылки на активный дескриптор файла</t>
+  </si>
+  <si>
+    <t>Выделение файловых дескрипторов без ограничений или регулировки</t>
+  </si>
+  <si>
+    <t>Удержание файлового дескриптора после его использования</t>
+  </si>
+  <si>
+    <t>Некорректное ограничение рекурсивных ссылок на сущности в определении типа документа (Распространение сущности XML)</t>
+  </si>
+  <si>
+    <t>Отсутствие ссылки на активный выделенный ресурс</t>
+  </si>
+  <si>
+    <t>Выделение ресурсов без ограничений или регулировки</t>
+  </si>
+  <si>
+    <t>Неполная фильтрация одного или нескольких экземпляров специальных элементов</t>
+  </si>
+  <si>
+    <t>Неполная фильтрация нескольких экземпляров специальных элементов</t>
+  </si>
+  <si>
+    <t>Фильтрация только одного экземпляра специальных элементов</t>
+  </si>
+  <si>
+    <t>Фильтрация специальных элементов только в указанных позициях</t>
+  </si>
+  <si>
+    <t>Фильтрация специальных элементов на основе маркеров</t>
+  </si>
+  <si>
+    <t>Фильтрация специальных элементов на основе расположения</t>
+  </si>
+  <si>
+    <t>Использование размера исходного буфера при обращении к целевому буферу</t>
+  </si>
+  <si>
+    <t>Использование недоверенных входных данных при обеспечении безопасности</t>
+  </si>
+  <si>
+    <t>Использование внешних входных данных для выбора класса или кода ("Небезопасное отражение")</t>
+  </si>
+  <si>
+    <t>Использование функции с непоследовательной реализацией</t>
+  </si>
+  <si>
+    <t>Неопределенное поведение входных данных API</t>
+  </si>
+  <si>
+    <t>Отсутствует проверка входных данных для циклических операций</t>
+  </si>
+  <si>
+    <t>Struts: общедоступное поле в классе ActionForm</t>
+  </si>
+  <si>
+    <t>Разглашение информации, связанное с индексацией конфиденциальных данных</t>
+  </si>
+  <si>
+    <t>Обход авторизации, используя значение ключа пользователя</t>
+  </si>
+  <si>
+    <t>Ненадежный механизм восстановления забытого пароля</t>
+  </si>
+  <si>
+    <t>Некорректные ограничения для имен фалов и ресурсов</t>
+  </si>
+  <si>
+    <t>Возможность доступа к критичной информации о состоянии</t>
+  </si>
+  <si>
+    <t>Элементы цепочки</t>
   </si>
 </sst>
 </file>
@@ -9590,14 +9668,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A750" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C755" sqref="C755"/>
+    <sheetView tabSelected="1" topLeftCell="A664" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C680" sqref="C680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -9852,7 +9930,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -9863,7 +9941,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -9874,7 +9952,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -9885,7 +9963,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -9896,7 +9974,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -9907,7 +9985,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -9918,7 +9996,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -9929,7 +10007,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -9940,7 +10018,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -9951,7 +10029,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -9962,7 +10040,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -9973,7 +10051,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -9984,7 +10062,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -9995,7 +10073,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -10006,7 +10084,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -10017,7 +10095,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -10028,7 +10106,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -10039,7 +10117,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -10050,7 +10128,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -10622,7 +10700,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -11062,7 +11140,7 @@
         <v>260</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -11139,7 +11217,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -11997,7 +12075,7 @@
         <v>430</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12008,7 +12086,7 @@
         <v>432</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -12085,7 +12163,7 @@
         <v>446</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -12327,7 +12405,7 @@
         <v>490</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -12349,7 +12427,7 @@
         <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -12822,7 +12900,7 @@
         <v>580</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -12976,7 +13054,7 @@
         <v>608</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -13207,7 +13285,7 @@
         <v>650</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -13713,7 +13791,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -14076,7 +14154,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -14109,7 +14187,7 @@
         <v>813</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -14263,7 +14341,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -14307,7 +14385,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -14318,7 +14396,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -14362,7 +14440,7 @@
         <v>859</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -14373,7 +14451,7 @@
         <v>861</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -14417,7 +14495,7 @@
         <v>869</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -14428,7 +14506,7 @@
         <v>871</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -14439,7 +14517,7 @@
         <v>873</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -14483,7 +14561,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -14505,7 +14583,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -14516,7 +14594,7 @@
         <v>887</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -14527,7 +14605,7 @@
         <v>889</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -14549,7 +14627,7 @@
         <v>893</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -14560,7 +14638,7 @@
         <v>895</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -14582,7 +14660,7 @@
         <v>899</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -14604,7 +14682,7 @@
         <v>903</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -14615,7 +14693,7 @@
         <v>905</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -14648,7 +14726,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -14670,7 +14748,7 @@
         <v>915</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -14681,7 +14759,7 @@
         <v>917</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -14692,7 +14770,7 @@
         <v>919</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -14703,7 +14781,7 @@
         <v>921</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -14714,7 +14792,7 @@
         <v>923</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -14747,7 +14825,7 @@
         <v>929</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -14758,7 +14836,7 @@
         <v>931</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -14769,15 +14847,18 @@
         <v>933</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="3" t="s">
         <v>934</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>935</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>3025</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -14788,7 +14869,7 @@
         <v>937</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -14799,7 +14880,7 @@
         <v>939</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -14814,19 +14895,25 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="3" t="s">
         <v>942</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>943</v>
       </c>
+      <c r="C475" s="1" t="s">
+        <v>3026</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="3" t="s">
         <v>944</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>945</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>3027</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -14886,7 +14973,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -14897,7 +14984,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -14954,7 +15041,7 @@
         <v>971</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -14987,7 +15074,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -14998,7 +15085,7 @@
         <v>979</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -15009,7 +15096,7 @@
         <v>981</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -15047,7 +15134,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -15058,7 +15145,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -15069,7 +15156,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -15080,7 +15167,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -15113,7 +15200,7 @@
         <v>1001</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15124,7 +15211,7 @@
         <v>1003</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15135,7 +15222,7 @@
         <v>1005</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -15223,7 +15310,7 @@
         <v>1021</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -15234,7 +15321,7 @@
         <v>1023</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -15245,7 +15332,7 @@
         <v>1025</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="517" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15256,7 +15343,7 @@
         <v>1027</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -15267,7 +15354,7 @@
         <v>1029</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -15278,7 +15365,7 @@
         <v>1031</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -15377,7 +15464,7 @@
         <v>1049</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -15388,7 +15475,7 @@
         <v>1051</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -15399,7 +15486,7 @@
         <v>1053</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -15410,7 +15497,7 @@
         <v>1055</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -15575,7 +15662,7 @@
         <v>1085</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -15630,7 +15717,7 @@
         <v>1095</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -15641,7 +15728,7 @@
         <v>1097</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -15652,7 +15739,7 @@
         <v>1099</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -15663,7 +15750,7 @@
         <v>1101</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -15674,7 +15761,7 @@
         <v>1103</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -15685,7 +15772,7 @@
         <v>1105</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -15696,7 +15783,7 @@
         <v>1107</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -15707,7 +15794,7 @@
         <v>1109</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -15718,7 +15805,7 @@
         <v>1111</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -15729,7 +15816,7 @@
         <v>1113</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -15784,7 +15871,7 @@
         <v>1123</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -15795,7 +15882,7 @@
         <v>1125</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -15806,7 +15893,7 @@
         <v>1127</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -15817,7 +15904,7 @@
         <v>1129</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -15828,7 +15915,7 @@
         <v>1131</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -15839,7 +15926,7 @@
         <v>1133</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -15850,7 +15937,7 @@
         <v>1135</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -15861,7 +15948,7 @@
         <v>1137</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -15872,7 +15959,7 @@
         <v>1139</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -15883,7 +15970,7 @@
         <v>1141</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -15894,7 +15981,7 @@
         <v>1143</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -15905,7 +15992,7 @@
         <v>1145</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -15916,7 +16003,7 @@
         <v>1147</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -15927,7 +16014,7 @@
         <v>1149</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -15938,7 +16025,7 @@
         <v>1151</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -15949,7 +16036,7 @@
         <v>1153</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -15960,7 +16047,7 @@
         <v>1155</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -15971,7 +16058,7 @@
         <v>1157</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -15982,7 +16069,7 @@
         <v>1159</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -15993,7 +16080,7 @@
         <v>1161</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -16004,7 +16091,7 @@
         <v>1163</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -16015,7 +16102,7 @@
         <v>1165</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -16026,7 +16113,7 @@
         <v>1167</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -16037,7 +16124,7 @@
         <v>1169</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -16048,7 +16135,7 @@
         <v>1171</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -16059,7 +16146,7 @@
         <v>1173</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -16070,7 +16157,7 @@
         <v>1175</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -16081,7 +16168,7 @@
         <v>1177</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="593" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -16092,7 +16179,7 @@
         <v>1179</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -16103,7 +16190,7 @@
         <v>1181</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -16114,7 +16201,7 @@
         <v>1183</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -16125,7 +16212,7 @@
         <v>1185</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -16136,7 +16223,7 @@
         <v>1187</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -16147,7 +16234,7 @@
         <v>1189</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -16158,7 +16245,7 @@
         <v>1191</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -16169,7 +16256,7 @@
         <v>1193</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -16180,7 +16267,7 @@
         <v>1195</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -16202,7 +16289,7 @@
         <v>1199</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -16213,7 +16300,7 @@
         <v>1201</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -16224,7 +16311,7 @@
         <v>1203</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -16235,15 +16322,18 @@
         <v>1205</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="3" t="s">
         <v>1206</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>1207</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>3028</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -16255,11 +16345,14 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1211</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>3029</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -16270,7 +16363,7 @@
         <v>1213</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -16293,11 +16386,14 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="3" t="s">
         <v>1218</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>1219</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>3030</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -16308,7 +16404,7 @@
         <v>1221</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -16319,7 +16415,7 @@
         <v>1223</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -16330,7 +16426,7 @@
         <v>1225</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -16365,7 +16461,7 @@
         <v>1233</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -16376,7 +16472,7 @@
         <v>1235</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -16443,7 +16539,7 @@
         <v>1251</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -16454,7 +16550,7 @@
         <v>1253</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="631" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16462,10 +16558,10 @@
         <v>1254</v>
       </c>
       <c r="B631" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C631" s="2" t="s">
         <v>2693</v>
-      </c>
-      <c r="C631" s="2" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="632" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16473,10 +16569,10 @@
         <v>1255</v>
       </c>
       <c r="B632" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C632" s="2" t="s">
         <v>2691</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="633" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16484,10 +16580,10 @@
         <v>1256</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C633" s="2" t="s">
         <v>2684</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="634" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16495,10 +16591,10 @@
         <v>1257</v>
       </c>
       <c r="B634" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C634" s="2" t="s">
         <v>2686</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="635" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16506,10 +16602,10 @@
         <v>1258</v>
       </c>
       <c r="B635" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C635" s="2" t="s">
         <v>2688</v>
-      </c>
-      <c r="C635" s="2" t="s">
-        <v>2689</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -16520,7 +16616,7 @@
         <v>1260</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -16548,38 +16644,47 @@
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="3" t="s">
         <v>1267</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2520</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="3" t="s">
         <v>1269</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>1270</v>
       </c>
+      <c r="C641" s="1" t="s">
+        <v>3032</v>
+      </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="C642" s="1" t="s">
+        <v>3033</v>
+      </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="3" t="s">
         <v>1273</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1274</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>3034</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -16633,7 +16738,7 @@
         <v>1286</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -16660,7 +16765,7 @@
         <v>1291</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -16671,7 +16776,7 @@
         <v>1293</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -16714,7 +16819,7 @@
         <v>1303</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -16788,7 +16893,7 @@
         <v>1317</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -16810,7 +16915,7 @@
         <v>1321</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -16821,7 +16926,7 @@
         <v>1323</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -16832,7 +16937,7 @@
         <v>1325</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -16859,7 +16964,7 @@
         <v>1331</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -16897,7 +17002,7 @@
         <v>1339</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -16908,7 +17013,7 @@
         <v>1341</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -16928,11 +17033,14 @@
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B680" s="1" t="s">
+      <c r="B680" s="2" t="s">
         <v>1347</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>3035</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
@@ -16976,7 +17084,7 @@
         <v>1355</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -16987,7 +17095,7 @@
         <v>1357</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -16998,7 +17106,7 @@
         <v>1359</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -17009,7 +17117,7 @@
         <v>1361</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -17020,7 +17128,7 @@
         <v>1363</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -17031,7 +17139,7 @@
         <v>1365</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -17042,7 +17150,7 @@
         <v>1367</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -17053,7 +17161,7 @@
         <v>1369</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -17064,7 +17172,7 @@
         <v>1371</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -17075,7 +17183,7 @@
         <v>1373</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -17086,7 +17194,7 @@
         <v>1375</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
@@ -17097,7 +17205,7 @@
         <v>1377</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -17108,7 +17216,7 @@
         <v>1379</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -17119,7 +17227,7 @@
         <v>1381</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -17130,7 +17238,7 @@
         <v>1383</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
@@ -17141,7 +17249,7 @@
         <v>1385</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
@@ -17196,7 +17304,7 @@
         <v>1395</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -17207,7 +17315,7 @@
         <v>1397</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
@@ -17218,7 +17326,7 @@
         <v>1399</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -17229,7 +17337,7 @@
         <v>1401</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -17240,7 +17348,7 @@
         <v>1403</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -17251,7 +17359,7 @@
         <v>1405</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -17262,7 +17370,7 @@
         <v>1407</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -17273,7 +17381,7 @@
         <v>1409</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -17306,7 +17414,7 @@
         <v>1415</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -17317,7 +17425,7 @@
         <v>1417</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -17328,7 +17436,7 @@
         <v>1419</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -17350,7 +17458,7 @@
         <v>1423</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -17361,7 +17469,7 @@
         <v>1425</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -17372,7 +17480,7 @@
         <v>1427</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -17383,7 +17491,7 @@
         <v>1429</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -17394,7 +17502,7 @@
         <v>1431</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -17405,7 +17513,7 @@
         <v>1433</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -17416,7 +17524,7 @@
         <v>1435</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -17427,7 +17535,7 @@
         <v>1437</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -17438,7 +17546,7 @@
         <v>1439</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -17460,7 +17568,7 @@
         <v>1443</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -17471,7 +17579,7 @@
         <v>1445</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -17482,7 +17590,7 @@
         <v>1447</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -17504,7 +17612,7 @@
         <v>1451</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -17515,7 +17623,7 @@
         <v>1453</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -17526,7 +17634,7 @@
         <v>1455</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -17537,7 +17645,7 @@
         <v>1457</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -17548,7 +17656,7 @@
         <v>1459</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -17559,7 +17667,7 @@
         <v>1461</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -17570,7 +17678,7 @@
         <v>1463</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -17581,7 +17689,7 @@
         <v>1465</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -17592,7 +17700,7 @@
         <v>1467</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -17603,7 +17711,7 @@
         <v>1469</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
@@ -17614,7 +17722,7 @@
         <v>1471</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
@@ -17625,7 +17733,7 @@
         <v>1473</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
@@ -17636,7 +17744,7 @@
         <v>1475</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
@@ -17647,7 +17755,7 @@
         <v>1477</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
@@ -17658,7 +17766,7 @@
         <v>1479</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
@@ -17669,7 +17777,7 @@
         <v>1481</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
@@ -17680,7 +17788,7 @@
         <v>1483</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
@@ -17691,7 +17799,7 @@
         <v>1485</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
@@ -17702,7 +17810,7 @@
         <v>1487</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
@@ -17713,7 +17821,7 @@
         <v>1489</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
@@ -17724,7 +17832,7 @@
         <v>1491</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -17735,7 +17843,7 @@
         <v>1493</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
@@ -17746,23 +17854,29 @@
         <v>1495</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="3" t="s">
         <v>1496</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>1497</v>
       </c>
+      <c r="C755" s="1" t="s">
+        <v>3009</v>
+      </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="3" t="s">
         <v>1498</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>1499</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>3010</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
@@ -17825,7 +17939,7 @@
         <v>1511</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
@@ -17836,7 +17950,7 @@
         <v>1513</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
@@ -17847,7 +17961,7 @@
         <v>1515</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
@@ -17858,7 +17972,7 @@
         <v>1517</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
@@ -17869,7 +17983,7 @@
         <v>1519</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
@@ -17880,7 +17994,7 @@
         <v>1521</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
@@ -17891,7 +18005,7 @@
         <v>1523</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
@@ -17910,23 +18024,29 @@
         <v>1527</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="3" t="s">
         <v>1528</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>1529</v>
       </c>
+      <c r="C771" s="1" t="s">
+        <v>3016</v>
+      </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="3" t="s">
         <v>1530</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>1531</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>3015</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
@@ -17937,39 +18057,51 @@
         <v>1533</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="3" t="s">
         <v>1534</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>1535</v>
       </c>
+      <c r="C774" s="1" t="s">
+        <v>3011</v>
+      </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="3" t="s">
         <v>1536</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>1537</v>
       </c>
+      <c r="C775" s="1" t="s">
+        <v>3012</v>
+      </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="3" t="s">
         <v>1538</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>1539</v>
       </c>
+      <c r="C776" s="1" t="s">
+        <v>3013</v>
+      </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="3" t="s">
         <v>1540</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>1541</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>3014</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
@@ -17980,7 +18112,7 @@
         <v>1543</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
@@ -17991,7 +18123,7 @@
         <v>1545</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -18002,7 +18134,7 @@
         <v>1547</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -18013,7 +18145,7 @@
         <v>1549</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
@@ -18064,7 +18196,7 @@
         <v>1561</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -18123,51 +18255,69 @@
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="3" t="s">
         <v>1572</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>1573</v>
       </c>
+      <c r="C793" s="1" t="s">
+        <v>3017</v>
+      </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="3" t="s">
         <v>1574</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>1575</v>
       </c>
+      <c r="C794" s="1" t="s">
+        <v>3019</v>
+      </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="3" t="s">
         <v>1576</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>1577</v>
       </c>
+      <c r="C795" s="1" t="s">
+        <v>3018</v>
+      </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="3" t="s">
         <v>1578</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>1579</v>
       </c>
+      <c r="C796" s="1" t="s">
+        <v>3020</v>
+      </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="3" t="s">
         <v>1580</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>1581</v>
       </c>
+      <c r="C797" s="1" t="s">
+        <v>3021</v>
+      </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="3" t="s">
         <v>1582</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>1583</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>3022</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
@@ -18200,7 +18350,7 @@
         <v>1589</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
@@ -18211,7 +18361,7 @@
         <v>1591</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
@@ -18222,7 +18372,7 @@
         <v>1593</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
@@ -18233,7 +18383,7 @@
         <v>1595</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
@@ -18255,23 +18405,29 @@
         <v>1599</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="3" t="s">
         <v>1600</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>1601</v>
       </c>
+      <c r="C807" s="1" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="3" t="s">
         <v>1602</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>1603</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>3024</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
@@ -18282,7 +18438,7 @@
         <v>1605</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
@@ -18293,7 +18449,7 @@
         <v>1607</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -18304,7 +18460,7 @@
         <v>1609</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -18315,7 +18471,7 @@
         <v>1611</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -18326,7 +18482,7 @@
         <v>1613</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -18337,7 +18493,7 @@
         <v>1615</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
@@ -18348,7 +18504,7 @@
         <v>1617</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -18359,7 +18515,7 @@
         <v>1619</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
@@ -18370,7 +18526,7 @@
         <v>1621</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -18381,7 +18537,7 @@
         <v>1623</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -18392,7 +18548,7 @@
         <v>1625</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
@@ -18403,7 +18559,7 @@
         <v>1627</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -18436,7 +18592,7 @@
         <v>1633</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -18447,7 +18603,7 @@
         <v>1635</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
@@ -18458,7 +18614,7 @@
         <v>1637</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
@@ -18598,7 +18754,7 @@
         <v>1669</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
@@ -18609,7 +18765,7 @@
         <v>1671</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
@@ -18620,7 +18776,7 @@
         <v>1673</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
@@ -18642,7 +18798,7 @@
         <v>1677</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -18653,7 +18809,7 @@
         <v>1679</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -18664,7 +18820,7 @@
         <v>1681</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -18675,7 +18831,7 @@
         <v>1683</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -18686,7 +18842,7 @@
         <v>1685</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -18697,7 +18853,7 @@
         <v>1687</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -18708,7 +18864,7 @@
         <v>1689</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -18719,7 +18875,7 @@
         <v>1691</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -18730,7 +18886,7 @@
         <v>1693</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -18741,7 +18897,7 @@
         <v>1695</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
@@ -18752,7 +18908,7 @@
         <v>1697</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -18763,7 +18919,7 @@
         <v>1699</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -18774,7 +18930,7 @@
         <v>1701</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -18785,7 +18941,7 @@
         <v>1703</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -18796,7 +18952,7 @@
         <v>1705</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -18807,7 +18963,7 @@
         <v>1707</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -18818,7 +18974,7 @@
         <v>1709</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -18829,7 +18985,7 @@
         <v>1711</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -18862,7 +19018,7 @@
         <v>1717</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -18873,7 +19029,7 @@
         <v>1719</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
@@ -18884,7 +19040,7 @@
         <v>1721</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
@@ -18895,7 +19051,7 @@
         <v>1723</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
@@ -18906,7 +19062,7 @@
         <v>1725</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -18917,7 +19073,7 @@
         <v>1727</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -18928,7 +19084,7 @@
         <v>1729</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -18939,7 +19095,7 @@
         <v>1731</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -18950,7 +19106,7 @@
         <v>1733</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -18961,7 +19117,7 @@
         <v>1735</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -18972,7 +19128,7 @@
         <v>1737</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -18983,7 +19139,7 @@
         <v>1739</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -18994,7 +19150,7 @@
         <v>1741</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
@@ -19005,7 +19161,7 @@
         <v>1743</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -19016,7 +19172,7 @@
         <v>1745</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
@@ -19027,7 +19183,7 @@
         <v>1747</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -19038,7 +19194,7 @@
         <v>1749</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
@@ -19049,7 +19205,7 @@
         <v>1751</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -19060,7 +19216,7 @@
         <v>1753</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
@@ -19071,7 +19227,7 @@
         <v>1755</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -19082,7 +19238,7 @@
         <v>1757</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
@@ -19093,7 +19249,7 @@
         <v>1759</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
@@ -19104,7 +19260,7 @@
         <v>1761</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -19115,7 +19271,7 @@
         <v>1763</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -19126,7 +19282,7 @@
         <v>1765</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -19137,7 +19293,7 @@
         <v>1767</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
@@ -19148,7 +19304,7 @@
         <v>1769</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
@@ -19159,7 +19315,7 @@
         <v>1771</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
@@ -19170,7 +19326,7 @@
         <v>1773</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
@@ -19181,7 +19337,7 @@
         <v>1775</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
@@ -19192,7 +19348,7 @@
         <v>1777</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -19203,7 +19359,7 @@
         <v>1779</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
@@ -19214,7 +19370,7 @@
         <v>1781</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
@@ -19225,7 +19381,7 @@
         <v>1783</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
@@ -19236,7 +19392,7 @@
         <v>1785</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -19247,7 +19403,7 @@
         <v>1787</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -19258,7 +19414,7 @@
         <v>1789</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
@@ -19269,7 +19425,7 @@
         <v>1791</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -19280,7 +19436,7 @@
         <v>1793</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -19291,7 +19447,7 @@
         <v>1795</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -19302,7 +19458,7 @@
         <v>1797</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -19313,7 +19469,7 @@
         <v>1799</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -19324,7 +19480,7 @@
         <v>1801</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -19335,7 +19491,7 @@
         <v>1803</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -19401,7 +19557,7 @@
         <v>1815</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
@@ -19412,7 +19568,7 @@
         <v>1817</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
@@ -19423,7 +19579,7 @@
         <v>1819</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
@@ -19434,7 +19590,7 @@
         <v>1821</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
@@ -19445,7 +19601,7 @@
         <v>2005</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -19467,7 +19623,7 @@
         <v>1826</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
@@ -19489,7 +19645,7 @@
         <v>1830</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
@@ -19551,7 +19707,7 @@
         <v>1843</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -19562,7 +19718,7 @@
         <v>1845</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
@@ -19573,7 +19729,7 @@
         <v>1847</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -19584,7 +19740,7 @@
         <v>1849</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -19595,7 +19751,7 @@
         <v>1851</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -19606,7 +19762,7 @@
         <v>1853</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -19617,7 +19773,7 @@
         <v>1855</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -19628,7 +19784,7 @@
         <v>1857</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
@@ -19639,7 +19795,7 @@
         <v>1859</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -19650,7 +19806,7 @@
         <v>1861</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
@@ -19661,7 +19817,7 @@
         <v>1863</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -19712,7 +19868,7 @@
         <v>1875</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -19723,7 +19879,7 @@
         <v>1877</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -19734,7 +19890,7 @@
         <v>1879</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -19745,7 +19901,7 @@
         <v>1881</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -19756,7 +19912,7 @@
         <v>1883</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -19767,7 +19923,7 @@
         <v>1885</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
@@ -19778,7 +19934,7 @@
         <v>1887</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
@@ -19789,7 +19945,7 @@
         <v>1889</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
@@ -19800,7 +19956,7 @@
         <v>1891</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
@@ -19811,7 +19967,7 @@
         <v>1893</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
@@ -19822,7 +19978,7 @@
         <v>1895</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
@@ -19833,7 +19989,7 @@
         <v>1897</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
@@ -19844,7 +20000,7 @@
         <v>1899</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
@@ -19855,7 +20011,7 @@
         <v>1901</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
@@ -19866,7 +20022,7 @@
         <v>1903</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
@@ -19877,7 +20033,7 @@
         <v>1905</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
@@ -19888,7 +20044,7 @@
         <v>1907</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
@@ -19899,7 +20055,7 @@
         <v>1909</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
@@ -19910,7 +20066,7 @@
         <v>1911</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
@@ -19921,7 +20077,7 @@
         <v>1913</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
@@ -19932,7 +20088,7 @@
         <v>1915</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
@@ -19943,7 +20099,7 @@
         <v>1917</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
@@ -19954,7 +20110,7 @@
         <v>1919</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
@@ -19965,7 +20121,7 @@
         <v>1921</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
@@ -19976,7 +20132,7 @@
         <v>1923</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
@@ -19987,7 +20143,7 @@
         <v>1925</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
@@ -19998,7 +20154,7 @@
         <v>1927</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
@@ -20009,7 +20165,7 @@
         <v>1929</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
@@ -20020,7 +20176,7 @@
         <v>1931</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
@@ -20031,7 +20187,7 @@
         <v>1933</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
@@ -20042,7 +20198,7 @@
         <v>1935</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
@@ -20053,7 +20209,7 @@
         <v>1937</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -20064,7 +20220,7 @@
         <v>1939</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
@@ -20075,7 +20231,7 @@
         <v>1941</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
@@ -20086,7 +20242,7 @@
         <v>1943</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
@@ -20097,7 +20253,7 @@
         <v>1945</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
@@ -20108,7 +20264,7 @@
         <v>1947</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
@@ -20119,7 +20275,7 @@
         <v>1949</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
@@ -20130,7 +20286,7 @@
         <v>1951</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
@@ -20141,7 +20297,7 @@
         <v>1953</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
@@ -20152,7 +20308,7 @@
         <v>1955</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -20163,7 +20319,7 @@
         <v>1957</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
@@ -20174,7 +20330,7 @@
         <v>1959</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
@@ -20185,7 +20341,7 @@
         <v>1961</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
@@ -20196,7 +20352,7 @@
         <v>1963</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
@@ -20207,7 +20363,7 @@
         <v>1965</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
@@ -20218,7 +20374,7 @@
         <v>1967</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
@@ -20229,7 +20385,7 @@
         <v>1969</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
@@ -20240,7 +20396,7 @@
         <v>1971</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
@@ -20251,7 +20407,7 @@
         <v>1973</v>
       </c>
       <c r="C994" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
@@ -20262,7 +20418,7 @@
         <v>1975</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
@@ -20273,7 +20429,7 @@
         <v>1977</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
@@ -20284,7 +20440,7 @@
         <v>1979</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -20295,7 +20451,7 @@
         <v>1981</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
@@ -20306,7 +20462,7 @@
         <v>1983</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -20317,7 +20473,7 @@
         <v>1985</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -20339,7 +20495,7 @@
         <v>1989</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
@@ -20350,7 +20506,7 @@
         <v>1991</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
@@ -20361,7 +20517,7 @@
         <v>1993</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -20388,376 +20544,376 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C1007" s="7" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="3" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="C1008" s="7" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C1009" s="7" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="3" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C1010" s="7" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="3" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="C1011" s="7" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="C1012" s="7" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="3" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C1013" s="7" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C1015" s="7" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="3" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C1022" s="7" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="3" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="3" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="3" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1027" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="3" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="3" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1034" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C1038" s="7" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1039" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C1039" s="7" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C1040" s="7" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">

--- a/CWE-List/CWE-List.xlsx
+++ b/CWE-List/CWE-List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezudilin\PT.Doc\CWE-List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ezudilin\PT.Doc\CWE-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B539ACEA-921F-47CC-A468-D4C794538DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="3119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="3392">
   <si>
     <t>CWE-1</t>
   </si>
@@ -9381,12 +9382,831 @@
   </si>
   <si>
     <t>DEPRECATED: Information Exposure Through Cleanup Log Files</t>
+  </si>
+  <si>
+    <t>Quality Weaknesses with Indirect Security Impacts</t>
+  </si>
+  <si>
+    <t>Use of Redundant Code</t>
+  </si>
+  <si>
+    <t>Static Member Data Element outside of a Singleton Class Element</t>
+  </si>
+  <si>
+    <t>Data Element Aggregating an Excessively Large Number of Non-Primitive Elements</t>
+  </si>
+  <si>
+    <t>Architecture with Number of Horizontal Layers Outside of Expected Range</t>
+  </si>
+  <si>
+    <t>Parent Class with a Virtual Destructor and a Child Class without a Virtual Destructor</t>
+  </si>
+  <si>
+    <t>Creation of Immutable Text Using String Concatenation</t>
+  </si>
+  <si>
+    <t>Modules with Circular Dependencies</t>
+  </si>
+  <si>
+    <t>Invokable Control Element with Large Number of Outward Calls</t>
+  </si>
+  <si>
+    <t>Excessive Data Query Operations in a Large Data Table</t>
+  </si>
+  <si>
+    <t>Excessive Platform Resource Consumption within a Loop</t>
+  </si>
+  <si>
+    <t>Initialization with Hard-Coded Network Resource Configuration Data</t>
+  </si>
+  <si>
+    <t>Excessive Use of Hard-Coded Literals in Initialization</t>
+  </si>
+  <si>
+    <t>Missing Documentation for Design</t>
+  </si>
+  <si>
+    <t>Invocation of a Control Element at an Unnecessarily Deep Horizontal Layer</t>
+  </si>
+  <si>
+    <t>Multiple Inheritance from Concrete Classes</t>
+  </si>
+  <si>
+    <t>Invokable Control Element with Variadic Parameters</t>
+  </si>
+  <si>
+    <t>Data Access Operations Outside of Expected Data Manager Component</t>
+  </si>
+  <si>
+    <t>Invokable Control Element in Multi-Thread Context with non-Final Static Storable or Member Element</t>
+  </si>
+  <si>
+    <t>Incomplete Documentation</t>
+  </si>
+  <si>
+    <t>Excessive Number of Inefficient Server-Side Data Accesses</t>
+  </si>
+  <si>
+    <t>Parent Class with References to Child Class</t>
+  </si>
+  <si>
+    <t>Creation of Class Instance within a Static Code Block</t>
+  </si>
+  <si>
+    <t>Invokable Control Element with Signature Containing an Excessive Number of Parameters</t>
+  </si>
+  <si>
+    <t>Runtime Resource Management Control Element in a Component Built to Run on Application Servers</t>
+  </si>
+  <si>
+    <t>Missing Serialization Control Element</t>
+  </si>
+  <si>
+    <t>Excessive Execution of Sequential Searches of Data Resource</t>
+  </si>
+  <si>
+    <t>Inconsistency Between Implementation and Documented Design</t>
+  </si>
+  <si>
+    <t>Empty Exception Block</t>
+  </si>
+  <si>
+    <t>Serializable Data Element Containing non-Serializable Item Elements</t>
+  </si>
+  <si>
+    <t>Empty Code Block</t>
+  </si>
+  <si>
+    <t>Data Resource Access without Use of Connection Pooling</t>
+  </si>
+  <si>
+    <t>Non-SQL Invokable Control Element with Excessive Number of Data Resource Accesses</t>
+  </si>
+  <si>
+    <t>Class with Excessively Deep Inheritance</t>
+  </si>
+  <si>
+    <t>Unconditional Control Flow Transfer outside of Switch Block</t>
+  </si>
+  <si>
+    <t>Insufficient Adherence to Expected Conventions</t>
+  </si>
+  <si>
+    <t>Floating Point Comparison with Incorrect Operator</t>
+  </si>
+  <si>
+    <t>Inappropriate Source Code Style or Formatting</t>
+  </si>
+  <si>
+    <t>Parent Class without Virtual Destructor Method</t>
+  </si>
+  <si>
+    <t>Source Code File with Excessive Number of Lines of Code</t>
+  </si>
+  <si>
+    <t>Class Instance Self Destruction Control Element</t>
+  </si>
+  <si>
+    <t>Data Access from Outside Expected Data Manager Component</t>
+  </si>
+  <si>
+    <t>Invokable Control Element with Excessive File or Data Access Operations</t>
+  </si>
+  <si>
+    <t>Invokable Control Element with Excessive Volume of Commented-out Code</t>
+  </si>
+  <si>
+    <t>Class with Excessive Number of Child Classes</t>
+  </si>
+  <si>
+    <t>Class with Virtual Method without a Virtual Destructor</t>
+  </si>
+  <si>
+    <t>Synchronous Access of Remote Resource without Timeout</t>
+  </si>
+  <si>
+    <t>Large Data Table with Excessive Number of Indices</t>
+  </si>
+  <si>
+    <t>Method Containing Access of a Member Element from Another Class</t>
+  </si>
+  <si>
+    <t>Use of Object without Invoking Destructor Method</t>
+  </si>
+  <si>
+    <t>Use of Same Invokable Control Element in Multiple Architectural Layers</t>
+  </si>
+  <si>
+    <t>Excessively Complex Data Representation</t>
+  </si>
+  <si>
+    <t>Excessive Index Range Scan for a Data Resource</t>
+  </si>
+  <si>
+    <t>Loop Condition Value Update within the Loop</t>
+  </si>
+  <si>
+    <t>Singleton Class Instance Creation without Proper Locking or Synchronization</t>
+  </si>
+  <si>
+    <t>Persistent Storable Data Element without Associated Comparison Control Element</t>
+  </si>
+  <si>
+    <t>Data Element containing Pointer Item without Proper Copy Control Element</t>
+  </si>
+  <si>
+    <t>Inconsistent Naming Conventions for Identifiers</t>
+  </si>
+  <si>
+    <t>Insufficient Isolation of System-Dependent Functions</t>
+  </si>
+  <si>
+    <t>Reliance on Runtime Component in Generated Code</t>
+  </si>
+  <si>
+    <t>Reliance on Machine-Dependent Data Representation</t>
+  </si>
+  <si>
+    <t>Use of Platform-Dependent Third Party Components</t>
+  </si>
+  <si>
+    <t>Use of Unmaintained Third Party Components</t>
+  </si>
+  <si>
+    <t>Insufficient Encapsulation of Machine-Dependent Functionality</t>
+  </si>
+  <si>
+    <t>Insufficient Use of Symbolic Constants</t>
+  </si>
+  <si>
+    <t>Insufficient Isolation of Symbolic Constant Definitions</t>
+  </si>
+  <si>
+    <t>Excessive Reliance on Global Variables</t>
+  </si>
+  <si>
+    <t>Use of Same Variable for Multiple Purposes</t>
+  </si>
+  <si>
+    <t>Incomplete Design Documentation</t>
+  </si>
+  <si>
+    <t>Incomplete I/O Documentation</t>
+  </si>
+  <si>
+    <t>Incomplete Documentation of Program Execution</t>
+  </si>
+  <si>
+    <t>Inappropriate Comment Style</t>
+  </si>
+  <si>
+    <t>Inappropriate Whitespace Style</t>
+  </si>
+  <si>
+    <t>Source Code Element without Standard Prologue</t>
+  </si>
+  <si>
+    <t>Inaccurate Comments</t>
+  </si>
+  <si>
+    <t>Callable with Insufficient Behavioral Summary</t>
+  </si>
+  <si>
+    <t>Insufficient Documentation of Error Handling Techniques</t>
+  </si>
+  <si>
+    <t>Excessive Use of Unconditional Branching</t>
+  </si>
+  <si>
+    <t>Excessive Code Complexity</t>
+  </si>
+  <si>
+    <t>Excessive McCabe Cyclomatic Complexity</t>
+  </si>
+  <si>
+    <t>Excessive Halstead Complexity</t>
+  </si>
+  <si>
+    <t>Excessive Use of Self-Modifying Code</t>
+  </si>
+  <si>
+    <t>Excessively Deep Nesting</t>
+  </si>
+  <si>
+    <t>Excessive Attack Surface</t>
+  </si>
+  <si>
+    <t>Declaration of Variable with Unnecessarily Wide Scope</t>
+  </si>
+  <si>
+    <t>Compilation with Insufficient Warnings or Errors</t>
+  </si>
+  <si>
+    <t>CISQ Quality Measures (2016)</t>
+  </si>
+  <si>
+    <t>CISQ Quality Measures - Reliability</t>
+  </si>
+  <si>
+    <t>CISQ Quality Measures - Maintainability</t>
+  </si>
+  <si>
+    <t>CISQ Quality Measures - Security</t>
+  </si>
+  <si>
+    <t>CISQ Quality Measures - Performance</t>
+  </si>
+  <si>
+    <t>Weaknesses Addressed by the SEI CERT Oracle Coding Standard for Java</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 00. Input Validation and Data Sanitization (IDS)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 01. Declarations and Initialization (DCL)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 02. Expressions (EXP)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 03. Numeric Types and Operations (NUM)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 04. Characters and Strings (STR)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 05. Object Orientation (OBJ)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 06. Methods (MET)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 07. Exceptional Behavior (ERR)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 08. Visibility and Atomicity (VNA)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 09. Locking (LCK)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 10. Thread APIs (THI)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 11. Thread Pools (TPS)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 12. Thread-Safety Miscellaneous (TSM)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 13. Input Output (FIO)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 14. Serialization (SER)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 15. Platform Security (SEC)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 16. Runtime Environment (ENV)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 17. Java Native Interface (JNI)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 49. Miscellaneous (MSC)</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 50. Android (DRD)</t>
+  </si>
+  <si>
+    <t>Weaknesses Addressed by the SEI CERT C Coding Standard</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 01. Preprocessor (PRE)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 02. Declarations and Initialization (DCL)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 03. Expressions (EXP)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 04. Integers (INT)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 05. Floating Point (FLP)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 06. Arrays (ARR)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 07. Characters and Strings (STR)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 08. Memory Management (MEM)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 09. Input Output (FIO)</t>
+  </si>
+  <si>
+    <t>Irrelevant Code</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 10. Environment (ENV)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 11. Signals (SIG)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 12. Error Handling (ERR)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 13. Application Programming Interfaces (API)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 14. Concurrency (CON)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 48. Miscellaneous (MSC)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 50. POSIX (POS)</t>
+  </si>
+  <si>
+    <t>SEI CERT C Coding Standard - Guidelines 51. Microsoft Windows (WIN)</t>
+  </si>
+  <si>
+    <t>Improper Use of Validation Framework</t>
+  </si>
+  <si>
+    <t>ASP.NET Misconfiguration: Improper Model Validation</t>
+  </si>
+  <si>
+    <t>SEI CERT Oracle Secure Coding Standard for Java - Guidelines 18. Concurrency (CON)</t>
+  </si>
+  <si>
+    <t>Inefficient CPU Computation</t>
+  </si>
+  <si>
+    <t>Use of Prohibited Code</t>
+  </si>
+  <si>
+    <t>CWE-1040</t>
+  </si>
+  <si>
+    <t>CWE-1041</t>
+  </si>
+  <si>
+    <t>CWE-1042</t>
+  </si>
+  <si>
+    <t>CWE-1043</t>
+  </si>
+  <si>
+    <t>CWE-1044</t>
+  </si>
+  <si>
+    <t>CWE-1045</t>
+  </si>
+  <si>
+    <t>CWE-1046</t>
+  </si>
+  <si>
+    <t>CWE-1047</t>
+  </si>
+  <si>
+    <t>CWE-1048</t>
+  </si>
+  <si>
+    <t>CWE-1049</t>
+  </si>
+  <si>
+    <t>CWE-1050</t>
+  </si>
+  <si>
+    <t>CWE-1051</t>
+  </si>
+  <si>
+    <t>CWE-1052</t>
+  </si>
+  <si>
+    <t>CWE-1053</t>
+  </si>
+  <si>
+    <t>CWE-1054</t>
+  </si>
+  <si>
+    <t>CWE-1055</t>
+  </si>
+  <si>
+    <t>CWE-1056</t>
+  </si>
+  <si>
+    <t>CWE-1057</t>
+  </si>
+  <si>
+    <t>CWE-1058</t>
+  </si>
+  <si>
+    <t>CWE-1059</t>
+  </si>
+  <si>
+    <t>CWE-1060</t>
+  </si>
+  <si>
+    <t>CWE-1061</t>
+  </si>
+  <si>
+    <t>CWE-1062</t>
+  </si>
+  <si>
+    <t>CWE-1063</t>
+  </si>
+  <si>
+    <t>CWE-1064</t>
+  </si>
+  <si>
+    <t>CWE-1065</t>
+  </si>
+  <si>
+    <t>CWE-1066</t>
+  </si>
+  <si>
+    <t>CWE-1067</t>
+  </si>
+  <si>
+    <t>CWE-1068</t>
+  </si>
+  <si>
+    <t>CWE-1069</t>
+  </si>
+  <si>
+    <t>CWE-1070</t>
+  </si>
+  <si>
+    <t>CWE-1071</t>
+  </si>
+  <si>
+    <t>CWE-1072</t>
+  </si>
+  <si>
+    <t>CWE-1073</t>
+  </si>
+  <si>
+    <t>CWE-1074</t>
+  </si>
+  <si>
+    <t>CWE-1075</t>
+  </si>
+  <si>
+    <t>CWE-1076</t>
+  </si>
+  <si>
+    <t>CWE-1077</t>
+  </si>
+  <si>
+    <t>CWE-1078</t>
+  </si>
+  <si>
+    <t>CWE-1079</t>
+  </si>
+  <si>
+    <t>CWE-1080</t>
+  </si>
+  <si>
+    <t>CWE-1082</t>
+  </si>
+  <si>
+    <t>CWE-1083</t>
+  </si>
+  <si>
+    <t>CWE-1084</t>
+  </si>
+  <si>
+    <t>CWE-1085</t>
+  </si>
+  <si>
+    <t>CWE-1086</t>
+  </si>
+  <si>
+    <t>CWE-1087</t>
+  </si>
+  <si>
+    <t>CWE-1088</t>
+  </si>
+  <si>
+    <t>CWE-1089</t>
+  </si>
+  <si>
+    <t>CWE-1090</t>
+  </si>
+  <si>
+    <t>CWE-1091</t>
+  </si>
+  <si>
+    <t>CWE-1092</t>
+  </si>
+  <si>
+    <t>CWE-1093</t>
+  </si>
+  <si>
+    <t>CWE-1094</t>
+  </si>
+  <si>
+    <t>CWE-1095</t>
+  </si>
+  <si>
+    <t>CWE-1096</t>
+  </si>
+  <si>
+    <t>CWE-1097</t>
+  </si>
+  <si>
+    <t>CWE-1098</t>
+  </si>
+  <si>
+    <t>CWE-1099</t>
+  </si>
+  <si>
+    <t>CWE-1100</t>
+  </si>
+  <si>
+    <t>CWE-1101</t>
+  </si>
+  <si>
+    <t>CWE-1102</t>
+  </si>
+  <si>
+    <t>CWE-1103</t>
+  </si>
+  <si>
+    <t>CWE-1104</t>
+  </si>
+  <si>
+    <t>CWE-1105</t>
+  </si>
+  <si>
+    <t>CWE-1106</t>
+  </si>
+  <si>
+    <t>CWE-1107</t>
+  </si>
+  <si>
+    <t>CWE-1108</t>
+  </si>
+  <si>
+    <t>CWE-1109</t>
+  </si>
+  <si>
+    <t>CWE-1110</t>
+  </si>
+  <si>
+    <t>CWE-1111</t>
+  </si>
+  <si>
+    <t>CWE-1112</t>
+  </si>
+  <si>
+    <t>CWE-1113</t>
+  </si>
+  <si>
+    <t>CWE-1114</t>
+  </si>
+  <si>
+    <t>CWE-1115</t>
+  </si>
+  <si>
+    <t>CWE-1116</t>
+  </si>
+  <si>
+    <t>CWE-1117</t>
+  </si>
+  <si>
+    <t>CWE-1118</t>
+  </si>
+  <si>
+    <t>CWE-1119</t>
+  </si>
+  <si>
+    <t>CWE-1120</t>
+  </si>
+  <si>
+    <t>CWE-1121</t>
+  </si>
+  <si>
+    <t>CWE-1122</t>
+  </si>
+  <si>
+    <t>CWE-1123</t>
+  </si>
+  <si>
+    <t>CWE-1124</t>
+  </si>
+  <si>
+    <t>CWE-1125</t>
+  </si>
+  <si>
+    <t>CWE-1126</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>CWE-1128</t>
+  </si>
+  <si>
+    <t>CWE-1129</t>
+  </si>
+  <si>
+    <t>CWE-1130</t>
+  </si>
+  <si>
+    <t>CWE-1131</t>
+  </si>
+  <si>
+    <t>CWE-1132</t>
+  </si>
+  <si>
+    <t>CWE-1133</t>
+  </si>
+  <si>
+    <t>CWE-1134</t>
+  </si>
+  <si>
+    <t>CWE-1135</t>
+  </si>
+  <si>
+    <t>CWE-1136</t>
+  </si>
+  <si>
+    <t>CWE-1137</t>
+  </si>
+  <si>
+    <t>CWE-1138</t>
+  </si>
+  <si>
+    <t>CWE-1139</t>
+  </si>
+  <si>
+    <t>CWE-1140</t>
+  </si>
+  <si>
+    <t>CWE-1141</t>
+  </si>
+  <si>
+    <t>CWE-1142</t>
+  </si>
+  <si>
+    <t>CWE-1143</t>
+  </si>
+  <si>
+    <t>CWE-1144</t>
+  </si>
+  <si>
+    <t>CWE-1145</t>
+  </si>
+  <si>
+    <t>CWE-1146</t>
+  </si>
+  <si>
+    <t>CWE-1147</t>
+  </si>
+  <si>
+    <t>CWE-1148</t>
+  </si>
+  <si>
+    <t>CWE-1149</t>
+  </si>
+  <si>
+    <t>CWE-1150</t>
+  </si>
+  <si>
+    <t>CWE-1151</t>
+  </si>
+  <si>
+    <t>CWE-1152</t>
+  </si>
+  <si>
+    <t>CWE-1153</t>
+  </si>
+  <si>
+    <t>CWE-1154</t>
+  </si>
+  <si>
+    <t>CWE-1155</t>
+  </si>
+  <si>
+    <t>CWE-1156</t>
+  </si>
+  <si>
+    <t>CWE-1157</t>
+  </si>
+  <si>
+    <t>CWE-1158</t>
+  </si>
+  <si>
+    <t>CWE-1159</t>
+  </si>
+  <si>
+    <t>CWE-1160</t>
+  </si>
+  <si>
+    <t>CWE-1161</t>
+  </si>
+  <si>
+    <t>CWE-1162</t>
+  </si>
+  <si>
+    <t>CWE-1163</t>
+  </si>
+  <si>
+    <t>CWE-1164</t>
+  </si>
+  <si>
+    <t>CWE-1165</t>
+  </si>
+  <si>
+    <t>CWE-1166</t>
+  </si>
+  <si>
+    <t>CWE-1167</t>
+  </si>
+  <si>
+    <t>CWE-1168</t>
+  </si>
+  <si>
+    <t>CWE-1169</t>
+  </si>
+  <si>
+    <t>CWE-1170</t>
+  </si>
+  <si>
+    <t>CWE-1171</t>
+  </si>
+  <si>
+    <t>CWE-1172</t>
+  </si>
+  <si>
+    <t>CWE-1173</t>
+  </si>
+  <si>
+    <t>CWE-1174</t>
+  </si>
+  <si>
+    <t>CWE-1175</t>
+  </si>
+  <si>
+    <t>CWE-1176</t>
+  </si>
+  <si>
+    <t>CWE-1177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9559,72 +10379,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFF44CE0"/>
     </mruColors>
@@ -9641,12 +10395,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C1041" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C1041"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:C1040" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C1040" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" name="ENG" dataDxfId="1"/>
-    <tableColumn id="3" name="RUS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ENG" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="RUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9660,7 +10414,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9914,18 +10668,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1041"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B543" sqref="B543"/>
+    <sheetView tabSelected="1" topLeftCell="A1024" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1041" sqref="C1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -21369,14 +22123,1110 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1041" s="3" t="s">
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3" t="s">
         <v>1975</v>
       </c>
-      <c r="B1041" s="1" t="s">
+      <c r="B1178" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="C1041" s="1" t="s">
+      <c r="C1178" s="1" t="s">
         <v>2452</v>
       </c>
     </row>
